--- a/experiment_results/worst_case/GPL/1wise/0.5_worst_case.xlsx
+++ b/experiment_results/worst_case/GPL/1wise/0.5_worst_case.xlsx
@@ -606,7 +606,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>176</v>
+        <v>18</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -638,7 +638,7 @@
         <v>8</v>
       </c>
       <c r="E3">
-        <v>188</v>
+        <v>68</v>
       </c>
       <c r="G3">
         <v>5</v>
@@ -702,7 +702,7 @@
         <v>5</v>
       </c>
       <c r="E5">
-        <v>234</v>
+        <v>122</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -734,7 +734,7 @@
         <v>86</v>
       </c>
       <c r="E6">
-        <v>233</v>
+        <v>162</v>
       </c>
       <c r="G6">
         <v>76</v>
@@ -798,7 +798,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <v>343</v>
+        <v>57</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -830,7 +830,7 @@
         <v>2</v>
       </c>
       <c r="E9">
-        <v>233</v>
+        <v>21</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -862,7 +862,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>128</v>
+        <v>10</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -926,7 +926,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>343</v>
+        <v>90</v>
       </c>
       <c r="G12">
         <v>6</v>
@@ -958,7 +958,7 @@
         <v>2</v>
       </c>
       <c r="E13">
-        <v>176</v>
+        <v>14</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -990,7 +990,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>175</v>
+        <v>18</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -1022,7 +1022,7 @@
         <v>3</v>
       </c>
       <c r="E15">
-        <v>233</v>
+        <v>68</v>
       </c>
       <c r="G15">
         <v>4</v>
@@ -1054,7 +1054,7 @@
         <v>41</v>
       </c>
       <c r="E16">
-        <v>201</v>
+        <v>131</v>
       </c>
       <c r="G16">
         <v>30</v>
@@ -1086,7 +1086,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>233</v>
+        <v>161</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -1118,7 +1118,7 @@
         <v>3</v>
       </c>
       <c r="E18">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="G18">
         <v>5</v>
@@ -1150,7 +1150,7 @@
         <v>3</v>
       </c>
       <c r="E19">
-        <v>234</v>
+        <v>71</v>
       </c>
       <c r="G19">
         <v>4</v>
@@ -1182,7 +1182,7 @@
         <v>3</v>
       </c>
       <c r="E20">
-        <v>233</v>
+        <v>13</v>
       </c>
       <c r="G20">
         <v>4</v>
@@ -1214,7 +1214,7 @@
         <v>6</v>
       </c>
       <c r="E21">
-        <v>475</v>
+        <v>102</v>
       </c>
       <c r="G21">
         <v>20</v>
@@ -1246,7 +1246,7 @@
         <v>5</v>
       </c>
       <c r="E22">
-        <v>233</v>
+        <v>11</v>
       </c>
       <c r="G22">
         <v>7</v>
@@ -1278,7 +1278,7 @@
         <v>2</v>
       </c>
       <c r="E23">
-        <v>233</v>
+        <v>67</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -1310,7 +1310,7 @@
         <v>1</v>
       </c>
       <c r="E24">
-        <v>120</v>
+        <v>2</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -1342,7 +1342,7 @@
         <v>4</v>
       </c>
       <c r="E25">
-        <v>175</v>
+        <v>18</v>
       </c>
       <c r="G25">
         <v>6</v>
@@ -1374,7 +1374,7 @@
         <v>6</v>
       </c>
       <c r="E26">
-        <v>407</v>
+        <v>82</v>
       </c>
       <c r="G26">
         <v>7</v>
@@ -1406,7 +1406,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>233</v>
+        <v>21</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -1438,7 +1438,7 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <v>265</v>
+        <v>32</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -1470,7 +1470,7 @@
         <v>2</v>
       </c>
       <c r="E29">
-        <v>465</v>
+        <v>62</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -1502,7 +1502,7 @@
         <v>1</v>
       </c>
       <c r="E30">
-        <v>128</v>
+        <v>11</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -1534,7 +1534,7 @@
         <v>5</v>
       </c>
       <c r="E31">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="G31">
         <v>8</v>
@@ -1566,7 +1566,7 @@
         <v>5</v>
       </c>
       <c r="E32">
-        <v>128</v>
+        <v>84</v>
       </c>
       <c r="G32">
         <v>6</v>
@@ -1598,7 +1598,7 @@
         <v>1</v>
       </c>
       <c r="E33">
-        <v>188</v>
+        <v>10</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -1630,7 +1630,7 @@
         <v>12</v>
       </c>
       <c r="E34">
-        <v>176</v>
+        <v>41</v>
       </c>
       <c r="G34">
         <v>14</v>
@@ -1662,7 +1662,7 @@
         <v>1</v>
       </c>
       <c r="E35">
-        <v>357</v>
+        <v>7</v>
       </c>
       <c r="G35">
         <v>2</v>
@@ -1694,7 +1694,7 @@
         <v>3</v>
       </c>
       <c r="E36">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="G36">
         <v>3</v>
@@ -1726,7 +1726,7 @@
         <v>3</v>
       </c>
       <c r="E37">
-        <v>465</v>
+        <v>29</v>
       </c>
       <c r="G37">
         <v>5</v>
@@ -1758,7 +1758,7 @@
         <v>1</v>
       </c>
       <c r="E38">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -1790,7 +1790,7 @@
         <v>18</v>
       </c>
       <c r="E39">
-        <v>343</v>
+        <v>109</v>
       </c>
       <c r="G39">
         <v>21</v>
@@ -1822,7 +1822,7 @@
         <v>9</v>
       </c>
       <c r="E40">
-        <v>188</v>
+        <v>68</v>
       </c>
       <c r="G40">
         <v>8</v>
@@ -1854,7 +1854,7 @@
         <v>3</v>
       </c>
       <c r="E41">
-        <v>465</v>
+        <v>11</v>
       </c>
       <c r="G41">
         <v>4</v>
@@ -1886,7 +1886,7 @@
         <v>2</v>
       </c>
       <c r="E42">
-        <v>465</v>
+        <v>61</v>
       </c>
       <c r="G42">
         <v>5</v>
@@ -1918,7 +1918,7 @@
         <v>3</v>
       </c>
       <c r="E43">
-        <v>128</v>
+        <v>11</v>
       </c>
       <c r="G43">
         <v>5</v>
@@ -1950,7 +1950,7 @@
         <v>2</v>
       </c>
       <c r="E44">
-        <v>197</v>
+        <v>26</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -2014,7 +2014,7 @@
         <v>6</v>
       </c>
       <c r="E46">
-        <v>201</v>
+        <v>39</v>
       </c>
       <c r="G46">
         <v>7</v>
@@ -2046,7 +2046,7 @@
         <v>11</v>
       </c>
       <c r="E47">
-        <v>357</v>
+        <v>138</v>
       </c>
       <c r="G47">
         <v>22</v>
@@ -2078,7 +2078,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -2110,7 +2110,7 @@
         <v>2</v>
       </c>
       <c r="E49">
-        <v>233</v>
+        <v>11</v>
       </c>
       <c r="G49">
         <v>2</v>
@@ -2142,7 +2142,7 @@
         <v>2</v>
       </c>
       <c r="E50">
-        <v>176</v>
+        <v>13</v>
       </c>
       <c r="G50">
         <v>3</v>
@@ -2174,7 +2174,7 @@
         <v>3</v>
       </c>
       <c r="E51">
-        <v>129</v>
+        <v>11</v>
       </c>
       <c r="G51">
         <v>5</v>
@@ -2206,7 +2206,7 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -2238,7 +2238,7 @@
         <v>3</v>
       </c>
       <c r="E53">
-        <v>234</v>
+        <v>142</v>
       </c>
       <c r="G53">
         <v>24</v>
@@ -2270,7 +2270,7 @@
         <v>13</v>
       </c>
       <c r="E54">
-        <v>129</v>
+        <v>36</v>
       </c>
       <c r="G54">
         <v>6</v>
@@ -2302,7 +2302,7 @@
         <v>4</v>
       </c>
       <c r="E55">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="G55">
         <v>5</v>
@@ -2334,7 +2334,7 @@
         <v>1</v>
       </c>
       <c r="E56">
-        <v>175</v>
+        <v>18</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -2411,7 +2411,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>176</v>
+        <v>18</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -2443,7 +2443,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>188</v>
+        <v>68</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -2507,7 +2507,7 @@
         <v>5</v>
       </c>
       <c r="E5">
-        <v>234</v>
+        <v>122</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -2539,7 +2539,7 @@
         <v>86</v>
       </c>
       <c r="E6">
-        <v>233</v>
+        <v>162</v>
       </c>
       <c r="G6">
         <v>76</v>
@@ -2603,7 +2603,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <v>343</v>
+        <v>57</v>
       </c>
       <c r="G8">
         <v>3</v>
@@ -2635,7 +2635,7 @@
         <v>2</v>
       </c>
       <c r="E9">
-        <v>233</v>
+        <v>21</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -2667,7 +2667,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>128</v>
+        <v>10</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -2731,7 +2731,7 @@
         <v>4</v>
       </c>
       <c r="E12">
-        <v>343</v>
+        <v>90</v>
       </c>
       <c r="G12">
         <v>4</v>
@@ -2763,7 +2763,7 @@
         <v>2</v>
       </c>
       <c r="E13">
-        <v>176</v>
+        <v>14</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -2795,7 +2795,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>175</v>
+        <v>18</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -2827,7 +2827,7 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <v>233</v>
+        <v>68</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -2859,7 +2859,7 @@
         <v>2</v>
       </c>
       <c r="E16">
-        <v>201</v>
+        <v>131</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -2891,7 +2891,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>233</v>
+        <v>161</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -2923,7 +2923,7 @@
         <v>3</v>
       </c>
       <c r="E18">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="G18">
         <v>5</v>
@@ -2955,7 +2955,7 @@
         <v>3</v>
       </c>
       <c r="E19">
-        <v>234</v>
+        <v>71</v>
       </c>
       <c r="G19">
         <v>4</v>
@@ -2987,7 +2987,7 @@
         <v>3</v>
       </c>
       <c r="E20">
-        <v>233</v>
+        <v>13</v>
       </c>
       <c r="G20">
         <v>4</v>
@@ -3019,7 +3019,7 @@
         <v>3</v>
       </c>
       <c r="E21">
-        <v>475</v>
+        <v>102</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -3051,7 +3051,7 @@
         <v>5</v>
       </c>
       <c r="E22">
-        <v>233</v>
+        <v>11</v>
       </c>
       <c r="G22">
         <v>7</v>
@@ -3083,7 +3083,7 @@
         <v>2</v>
       </c>
       <c r="E23">
-        <v>233</v>
+        <v>67</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -3115,7 +3115,7 @@
         <v>1</v>
       </c>
       <c r="E24">
-        <v>120</v>
+        <v>2</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -3147,7 +3147,7 @@
         <v>4</v>
       </c>
       <c r="E25">
-        <v>175</v>
+        <v>18</v>
       </c>
       <c r="G25">
         <v>6</v>
@@ -3179,7 +3179,7 @@
         <v>5</v>
       </c>
       <c r="E26">
-        <v>407</v>
+        <v>82</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -3211,7 +3211,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>233</v>
+        <v>21</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -3243,7 +3243,7 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <v>265</v>
+        <v>32</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -3275,7 +3275,7 @@
         <v>2</v>
       </c>
       <c r="E29">
-        <v>465</v>
+        <v>62</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -3307,7 +3307,7 @@
         <v>1</v>
       </c>
       <c r="E30">
-        <v>128</v>
+        <v>11</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -3339,7 +3339,7 @@
         <v>2</v>
       </c>
       <c r="E31">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -3371,7 +3371,7 @@
         <v>5</v>
       </c>
       <c r="E32">
-        <v>128</v>
+        <v>84</v>
       </c>
       <c r="G32">
         <v>6</v>
@@ -3403,7 +3403,7 @@
         <v>1</v>
       </c>
       <c r="E33">
-        <v>188</v>
+        <v>10</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -3435,7 +3435,7 @@
         <v>12</v>
       </c>
       <c r="E34">
-        <v>176</v>
+        <v>41</v>
       </c>
       <c r="G34">
         <v>14</v>
@@ -3467,7 +3467,7 @@
         <v>1</v>
       </c>
       <c r="E35">
-        <v>357</v>
+        <v>7</v>
       </c>
       <c r="G35">
         <v>2</v>
@@ -3499,7 +3499,7 @@
         <v>3</v>
       </c>
       <c r="E36">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="G36">
         <v>3</v>
@@ -3531,7 +3531,7 @@
         <v>3</v>
       </c>
       <c r="E37">
-        <v>465</v>
+        <v>29</v>
       </c>
       <c r="G37">
         <v>3</v>
@@ -3563,7 +3563,7 @@
         <v>1</v>
       </c>
       <c r="E38">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -3595,7 +3595,7 @@
         <v>19</v>
       </c>
       <c r="E39">
-        <v>343</v>
+        <v>109</v>
       </c>
       <c r="G39">
         <v>2</v>
@@ -3627,7 +3627,7 @@
         <v>7</v>
       </c>
       <c r="E40">
-        <v>188</v>
+        <v>68</v>
       </c>
       <c r="G40">
         <v>8</v>
@@ -3659,7 +3659,7 @@
         <v>1</v>
       </c>
       <c r="E41">
-        <v>465</v>
+        <v>11</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -3691,7 +3691,7 @@
         <v>1</v>
       </c>
       <c r="E42">
-        <v>465</v>
+        <v>61</v>
       </c>
       <c r="G42">
         <v>5</v>
@@ -3723,7 +3723,7 @@
         <v>3</v>
       </c>
       <c r="E43">
-        <v>128</v>
+        <v>11</v>
       </c>
       <c r="G43">
         <v>5</v>
@@ -3755,7 +3755,7 @@
         <v>2</v>
       </c>
       <c r="E44">
-        <v>197</v>
+        <v>26</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -3819,7 +3819,7 @@
         <v>6</v>
       </c>
       <c r="E46">
-        <v>201</v>
+        <v>39</v>
       </c>
       <c r="G46">
         <v>7</v>
@@ -3851,7 +3851,7 @@
         <v>6</v>
       </c>
       <c r="E47">
-        <v>357</v>
+        <v>138</v>
       </c>
       <c r="G47">
         <v>4</v>
@@ -3883,7 +3883,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -3915,7 +3915,7 @@
         <v>2</v>
       </c>
       <c r="E49">
-        <v>233</v>
+        <v>11</v>
       </c>
       <c r="G49">
         <v>2</v>
@@ -3947,7 +3947,7 @@
         <v>2</v>
       </c>
       <c r="E50">
-        <v>176</v>
+        <v>13</v>
       </c>
       <c r="G50">
         <v>3</v>
@@ -3979,7 +3979,7 @@
         <v>3</v>
       </c>
       <c r="E51">
-        <v>129</v>
+        <v>11</v>
       </c>
       <c r="G51">
         <v>5</v>
@@ -4011,7 +4011,7 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -4043,7 +4043,7 @@
         <v>3</v>
       </c>
       <c r="E53">
-        <v>234</v>
+        <v>142</v>
       </c>
       <c r="G53">
         <v>10</v>
@@ -4075,7 +4075,7 @@
         <v>1</v>
       </c>
       <c r="E54">
-        <v>129</v>
+        <v>36</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -4107,7 +4107,7 @@
         <v>4</v>
       </c>
       <c r="E55">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="G55">
         <v>5</v>
@@ -4139,7 +4139,7 @@
         <v>1</v>
       </c>
       <c r="E56">
-        <v>175</v>
+        <v>18</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -4216,7 +4216,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>176</v>
+        <v>18</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -4248,7 +4248,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>188</v>
+        <v>68</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -4312,7 +4312,7 @@
         <v>5</v>
       </c>
       <c r="E5">
-        <v>234</v>
+        <v>122</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -4344,7 +4344,7 @@
         <v>86</v>
       </c>
       <c r="E6">
-        <v>233</v>
+        <v>162</v>
       </c>
       <c r="G6">
         <v>76</v>
@@ -4408,7 +4408,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <v>343</v>
+        <v>57</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -4440,7 +4440,7 @@
         <v>2</v>
       </c>
       <c r="E9">
-        <v>233</v>
+        <v>21</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -4472,7 +4472,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>128</v>
+        <v>10</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -4536,7 +4536,7 @@
         <v>4</v>
       </c>
       <c r="E12">
-        <v>343</v>
+        <v>90</v>
       </c>
       <c r="G12">
         <v>4</v>
@@ -4568,7 +4568,7 @@
         <v>2</v>
       </c>
       <c r="E13">
-        <v>176</v>
+        <v>14</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -4600,7 +4600,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>175</v>
+        <v>18</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -4632,7 +4632,7 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <v>233</v>
+        <v>68</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -4664,7 +4664,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>201</v>
+        <v>131</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -4696,7 +4696,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>233</v>
+        <v>161</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -4728,7 +4728,7 @@
         <v>3</v>
       </c>
       <c r="E18">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="G18">
         <v>5</v>
@@ -4760,7 +4760,7 @@
         <v>3</v>
       </c>
       <c r="E19">
-        <v>234</v>
+        <v>71</v>
       </c>
       <c r="G19">
         <v>4</v>
@@ -4792,7 +4792,7 @@
         <v>3</v>
       </c>
       <c r="E20">
-        <v>233</v>
+        <v>13</v>
       </c>
       <c r="G20">
         <v>4</v>
@@ -4824,7 +4824,7 @@
         <v>3</v>
       </c>
       <c r="E21">
-        <v>475</v>
+        <v>102</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -4856,7 +4856,7 @@
         <v>5</v>
       </c>
       <c r="E22">
-        <v>233</v>
+        <v>11</v>
       </c>
       <c r="G22">
         <v>7</v>
@@ -4888,7 +4888,7 @@
         <v>2</v>
       </c>
       <c r="E23">
-        <v>233</v>
+        <v>67</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -4920,7 +4920,7 @@
         <v>1</v>
       </c>
       <c r="E24">
-        <v>120</v>
+        <v>2</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -4952,7 +4952,7 @@
         <v>4</v>
       </c>
       <c r="E25">
-        <v>175</v>
+        <v>18</v>
       </c>
       <c r="G25">
         <v>6</v>
@@ -4984,7 +4984,7 @@
         <v>5</v>
       </c>
       <c r="E26">
-        <v>407</v>
+        <v>82</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -5016,7 +5016,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>233</v>
+        <v>21</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -5048,7 +5048,7 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <v>265</v>
+        <v>32</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -5080,7 +5080,7 @@
         <v>2</v>
       </c>
       <c r="E29">
-        <v>465</v>
+        <v>62</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -5112,7 +5112,7 @@
         <v>1</v>
       </c>
       <c r="E30">
-        <v>128</v>
+        <v>11</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -5144,7 +5144,7 @@
         <v>2</v>
       </c>
       <c r="E31">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -5176,7 +5176,7 @@
         <v>5</v>
       </c>
       <c r="E32">
-        <v>128</v>
+        <v>84</v>
       </c>
       <c r="G32">
         <v>6</v>
@@ -5208,7 +5208,7 @@
         <v>1</v>
       </c>
       <c r="E33">
-        <v>188</v>
+        <v>10</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -5240,7 +5240,7 @@
         <v>12</v>
       </c>
       <c r="E34">
-        <v>176</v>
+        <v>41</v>
       </c>
       <c r="G34">
         <v>14</v>
@@ -5272,7 +5272,7 @@
         <v>1</v>
       </c>
       <c r="E35">
-        <v>357</v>
+        <v>7</v>
       </c>
       <c r="G35">
         <v>2</v>
@@ -5304,7 +5304,7 @@
         <v>3</v>
       </c>
       <c r="E36">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="G36">
         <v>3</v>
@@ -5336,7 +5336,7 @@
         <v>3</v>
       </c>
       <c r="E37">
-        <v>465</v>
+        <v>29</v>
       </c>
       <c r="G37">
         <v>3</v>
@@ -5368,7 +5368,7 @@
         <v>1</v>
       </c>
       <c r="E38">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -5400,7 +5400,7 @@
         <v>18</v>
       </c>
       <c r="E39">
-        <v>343</v>
+        <v>109</v>
       </c>
       <c r="G39">
         <v>2</v>
@@ -5432,7 +5432,7 @@
         <v>7</v>
       </c>
       <c r="E40">
-        <v>188</v>
+        <v>68</v>
       </c>
       <c r="G40">
         <v>8</v>
@@ -5464,7 +5464,7 @@
         <v>1</v>
       </c>
       <c r="E41">
-        <v>465</v>
+        <v>11</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -5496,7 +5496,7 @@
         <v>1</v>
       </c>
       <c r="E42">
-        <v>465</v>
+        <v>61</v>
       </c>
       <c r="G42">
         <v>5</v>
@@ -5528,7 +5528,7 @@
         <v>3</v>
       </c>
       <c r="E43">
-        <v>128</v>
+        <v>11</v>
       </c>
       <c r="G43">
         <v>5</v>
@@ -5560,7 +5560,7 @@
         <v>2</v>
       </c>
       <c r="E44">
-        <v>197</v>
+        <v>26</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -5624,7 +5624,7 @@
         <v>6</v>
       </c>
       <c r="E46">
-        <v>201</v>
+        <v>39</v>
       </c>
       <c r="G46">
         <v>7</v>
@@ -5656,7 +5656,7 @@
         <v>8</v>
       </c>
       <c r="E47">
-        <v>357</v>
+        <v>138</v>
       </c>
       <c r="G47">
         <v>4</v>
@@ -5688,7 +5688,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -5720,7 +5720,7 @@
         <v>2</v>
       </c>
       <c r="E49">
-        <v>233</v>
+        <v>11</v>
       </c>
       <c r="G49">
         <v>2</v>
@@ -5752,7 +5752,7 @@
         <v>2</v>
       </c>
       <c r="E50">
-        <v>176</v>
+        <v>13</v>
       </c>
       <c r="G50">
         <v>3</v>
@@ -5784,7 +5784,7 @@
         <v>3</v>
       </c>
       <c r="E51">
-        <v>129</v>
+        <v>11</v>
       </c>
       <c r="G51">
         <v>5</v>
@@ -5816,7 +5816,7 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -5848,7 +5848,7 @@
         <v>3</v>
       </c>
       <c r="E53">
-        <v>234</v>
+        <v>142</v>
       </c>
       <c r="G53">
         <v>10</v>
@@ -5880,7 +5880,7 @@
         <v>10</v>
       </c>
       <c r="E54">
-        <v>129</v>
+        <v>36</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -5912,7 +5912,7 @@
         <v>4</v>
       </c>
       <c r="E55">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="G55">
         <v>5</v>
@@ -5944,7 +5944,7 @@
         <v>1</v>
       </c>
       <c r="E56">
-        <v>175</v>
+        <v>18</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -6021,7 +6021,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>176</v>
+        <v>18</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -6053,7 +6053,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>188</v>
+        <v>68</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -6117,7 +6117,7 @@
         <v>5</v>
       </c>
       <c r="E5">
-        <v>234</v>
+        <v>122</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -6149,7 +6149,7 @@
         <v>86</v>
       </c>
       <c r="E6">
-        <v>233</v>
+        <v>162</v>
       </c>
       <c r="G6">
         <v>76</v>
@@ -6213,7 +6213,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <v>343</v>
+        <v>57</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -6245,7 +6245,7 @@
         <v>2</v>
       </c>
       <c r="E9">
-        <v>233</v>
+        <v>21</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -6277,7 +6277,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>128</v>
+        <v>10</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -6341,7 +6341,7 @@
         <v>4</v>
       </c>
       <c r="E12">
-        <v>343</v>
+        <v>90</v>
       </c>
       <c r="G12">
         <v>4</v>
@@ -6373,7 +6373,7 @@
         <v>2</v>
       </c>
       <c r="E13">
-        <v>176</v>
+        <v>14</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -6405,7 +6405,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>175</v>
+        <v>18</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -6437,7 +6437,7 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <v>233</v>
+        <v>68</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -6469,7 +6469,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>201</v>
+        <v>131</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -6501,7 +6501,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>233</v>
+        <v>161</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -6533,7 +6533,7 @@
         <v>3</v>
       </c>
       <c r="E18">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="G18">
         <v>5</v>
@@ -6565,7 +6565,7 @@
         <v>3</v>
       </c>
       <c r="E19">
-        <v>234</v>
+        <v>71</v>
       </c>
       <c r="G19">
         <v>4</v>
@@ -6597,7 +6597,7 @@
         <v>3</v>
       </c>
       <c r="E20">
-        <v>233</v>
+        <v>13</v>
       </c>
       <c r="G20">
         <v>4</v>
@@ -6629,7 +6629,7 @@
         <v>3</v>
       </c>
       <c r="E21">
-        <v>475</v>
+        <v>102</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -6661,7 +6661,7 @@
         <v>5</v>
       </c>
       <c r="E22">
-        <v>233</v>
+        <v>11</v>
       </c>
       <c r="G22">
         <v>7</v>
@@ -6693,7 +6693,7 @@
         <v>2</v>
       </c>
       <c r="E23">
-        <v>233</v>
+        <v>67</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -6725,7 +6725,7 @@
         <v>1</v>
       </c>
       <c r="E24">
-        <v>120</v>
+        <v>2</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -6757,7 +6757,7 @@
         <v>4</v>
       </c>
       <c r="E25">
-        <v>175</v>
+        <v>18</v>
       </c>
       <c r="G25">
         <v>6</v>
@@ -6789,7 +6789,7 @@
         <v>5</v>
       </c>
       <c r="E26">
-        <v>407</v>
+        <v>82</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -6821,7 +6821,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>233</v>
+        <v>21</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -6853,7 +6853,7 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <v>265</v>
+        <v>32</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -6885,7 +6885,7 @@
         <v>2</v>
       </c>
       <c r="E29">
-        <v>465</v>
+        <v>62</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -6917,7 +6917,7 @@
         <v>1</v>
       </c>
       <c r="E30">
-        <v>128</v>
+        <v>11</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -6949,7 +6949,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -6981,7 +6981,7 @@
         <v>5</v>
       </c>
       <c r="E32">
-        <v>128</v>
+        <v>84</v>
       </c>
       <c r="G32">
         <v>6</v>
@@ -7013,7 +7013,7 @@
         <v>1</v>
       </c>
       <c r="E33">
-        <v>188</v>
+        <v>10</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -7045,7 +7045,7 @@
         <v>12</v>
       </c>
       <c r="E34">
-        <v>176</v>
+        <v>41</v>
       </c>
       <c r="G34">
         <v>14</v>
@@ -7077,7 +7077,7 @@
         <v>1</v>
       </c>
       <c r="E35">
-        <v>357</v>
+        <v>7</v>
       </c>
       <c r="G35">
         <v>2</v>
@@ -7109,7 +7109,7 @@
         <v>3</v>
       </c>
       <c r="E36">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="G36">
         <v>3</v>
@@ -7141,7 +7141,7 @@
         <v>3</v>
       </c>
       <c r="E37">
-        <v>465</v>
+        <v>29</v>
       </c>
       <c r="G37">
         <v>3</v>
@@ -7173,7 +7173,7 @@
         <v>1</v>
       </c>
       <c r="E38">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -7205,7 +7205,7 @@
         <v>18</v>
       </c>
       <c r="E39">
-        <v>343</v>
+        <v>109</v>
       </c>
       <c r="G39">
         <v>2</v>
@@ -7237,7 +7237,7 @@
         <v>7</v>
       </c>
       <c r="E40">
-        <v>188</v>
+        <v>68</v>
       </c>
       <c r="G40">
         <v>8</v>
@@ -7269,7 +7269,7 @@
         <v>1</v>
       </c>
       <c r="E41">
-        <v>465</v>
+        <v>11</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -7301,7 +7301,7 @@
         <v>1</v>
       </c>
       <c r="E42">
-        <v>465</v>
+        <v>61</v>
       </c>
       <c r="G42">
         <v>5</v>
@@ -7333,7 +7333,7 @@
         <v>3</v>
       </c>
       <c r="E43">
-        <v>128</v>
+        <v>11</v>
       </c>
       <c r="G43">
         <v>5</v>
@@ -7365,7 +7365,7 @@
         <v>2</v>
       </c>
       <c r="E44">
-        <v>197</v>
+        <v>26</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -7429,7 +7429,7 @@
         <v>6</v>
       </c>
       <c r="E46">
-        <v>201</v>
+        <v>39</v>
       </c>
       <c r="G46">
         <v>7</v>
@@ -7461,7 +7461,7 @@
         <v>8</v>
       </c>
       <c r="E47">
-        <v>357</v>
+        <v>138</v>
       </c>
       <c r="G47">
         <v>4</v>
@@ -7493,7 +7493,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -7525,7 +7525,7 @@
         <v>2</v>
       </c>
       <c r="E49">
-        <v>233</v>
+        <v>11</v>
       </c>
       <c r="G49">
         <v>2</v>
@@ -7557,7 +7557,7 @@
         <v>2</v>
       </c>
       <c r="E50">
-        <v>176</v>
+        <v>13</v>
       </c>
       <c r="G50">
         <v>3</v>
@@ -7589,7 +7589,7 @@
         <v>3</v>
       </c>
       <c r="E51">
-        <v>129</v>
+        <v>11</v>
       </c>
       <c r="G51">
         <v>5</v>
@@ -7621,7 +7621,7 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -7653,7 +7653,7 @@
         <v>3</v>
       </c>
       <c r="E53">
-        <v>234</v>
+        <v>142</v>
       </c>
       <c r="G53">
         <v>10</v>
@@ -7685,7 +7685,7 @@
         <v>10</v>
       </c>
       <c r="E54">
-        <v>129</v>
+        <v>36</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -7717,7 +7717,7 @@
         <v>4</v>
       </c>
       <c r="E55">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="G55">
         <v>5</v>
@@ -7749,7 +7749,7 @@
         <v>1</v>
       </c>
       <c r="E56">
-        <v>175</v>
+        <v>18</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -7826,7 +7826,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>176</v>
+        <v>18</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -7858,7 +7858,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>188</v>
+        <v>68</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -7922,7 +7922,7 @@
         <v>5</v>
       </c>
       <c r="E5">
-        <v>234</v>
+        <v>122</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -7954,7 +7954,7 @@
         <v>86</v>
       </c>
       <c r="E6">
-        <v>233</v>
+        <v>162</v>
       </c>
       <c r="G6">
         <v>76</v>
@@ -8018,7 +8018,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <v>343</v>
+        <v>57</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -8050,7 +8050,7 @@
         <v>2</v>
       </c>
       <c r="E9">
-        <v>233</v>
+        <v>21</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -8082,7 +8082,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>128</v>
+        <v>10</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -8146,7 +8146,7 @@
         <v>4</v>
       </c>
       <c r="E12">
-        <v>343</v>
+        <v>90</v>
       </c>
       <c r="G12">
         <v>4</v>
@@ -8178,7 +8178,7 @@
         <v>2</v>
       </c>
       <c r="E13">
-        <v>176</v>
+        <v>14</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -8210,7 +8210,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>175</v>
+        <v>18</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -8242,7 +8242,7 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <v>233</v>
+        <v>68</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -8274,7 +8274,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>201</v>
+        <v>131</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -8306,7 +8306,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>233</v>
+        <v>161</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -8338,7 +8338,7 @@
         <v>3</v>
       </c>
       <c r="E18">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="G18">
         <v>5</v>
@@ -8370,7 +8370,7 @@
         <v>3</v>
       </c>
       <c r="E19">
-        <v>234</v>
+        <v>71</v>
       </c>
       <c r="G19">
         <v>4</v>
@@ -8402,7 +8402,7 @@
         <v>3</v>
       </c>
       <c r="E20">
-        <v>233</v>
+        <v>13</v>
       </c>
       <c r="G20">
         <v>4</v>
@@ -8434,7 +8434,7 @@
         <v>3</v>
       </c>
       <c r="E21">
-        <v>475</v>
+        <v>102</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -8466,7 +8466,7 @@
         <v>5</v>
       </c>
       <c r="E22">
-        <v>233</v>
+        <v>11</v>
       </c>
       <c r="G22">
         <v>7</v>
@@ -8498,7 +8498,7 @@
         <v>2</v>
       </c>
       <c r="E23">
-        <v>233</v>
+        <v>67</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -8530,7 +8530,7 @@
         <v>1</v>
       </c>
       <c r="E24">
-        <v>120</v>
+        <v>2</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -8562,7 +8562,7 @@
         <v>4</v>
       </c>
       <c r="E25">
-        <v>175</v>
+        <v>18</v>
       </c>
       <c r="G25">
         <v>6</v>
@@ -8594,7 +8594,7 @@
         <v>5</v>
       </c>
       <c r="E26">
-        <v>407</v>
+        <v>82</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -8626,7 +8626,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>233</v>
+        <v>21</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -8658,7 +8658,7 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <v>265</v>
+        <v>32</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -8690,7 +8690,7 @@
         <v>2</v>
       </c>
       <c r="E29">
-        <v>465</v>
+        <v>62</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -8722,7 +8722,7 @@
         <v>1</v>
       </c>
       <c r="E30">
-        <v>128</v>
+        <v>11</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -8754,7 +8754,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -8786,7 +8786,7 @@
         <v>5</v>
       </c>
       <c r="E32">
-        <v>128</v>
+        <v>84</v>
       </c>
       <c r="G32">
         <v>6</v>
@@ -8818,7 +8818,7 @@
         <v>1</v>
       </c>
       <c r="E33">
-        <v>188</v>
+        <v>10</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -8850,7 +8850,7 @@
         <v>12</v>
       </c>
       <c r="E34">
-        <v>176</v>
+        <v>41</v>
       </c>
       <c r="G34">
         <v>14</v>
@@ -8882,7 +8882,7 @@
         <v>1</v>
       </c>
       <c r="E35">
-        <v>357</v>
+        <v>7</v>
       </c>
       <c r="G35">
         <v>2</v>
@@ -8914,7 +8914,7 @@
         <v>3</v>
       </c>
       <c r="E36">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="G36">
         <v>3</v>
@@ -8946,7 +8946,7 @@
         <v>3</v>
       </c>
       <c r="E37">
-        <v>465</v>
+        <v>29</v>
       </c>
       <c r="G37">
         <v>3</v>
@@ -8978,7 +8978,7 @@
         <v>1</v>
       </c>
       <c r="E38">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -9010,7 +9010,7 @@
         <v>18</v>
       </c>
       <c r="E39">
-        <v>343</v>
+        <v>109</v>
       </c>
       <c r="G39">
         <v>2</v>
@@ -9042,7 +9042,7 @@
         <v>7</v>
       </c>
       <c r="E40">
-        <v>188</v>
+        <v>68</v>
       </c>
       <c r="G40">
         <v>8</v>
@@ -9074,7 +9074,7 @@
         <v>1</v>
       </c>
       <c r="E41">
-        <v>465</v>
+        <v>11</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -9106,7 +9106,7 @@
         <v>1</v>
       </c>
       <c r="E42">
-        <v>465</v>
+        <v>61</v>
       </c>
       <c r="G42">
         <v>5</v>
@@ -9138,7 +9138,7 @@
         <v>3</v>
       </c>
       <c r="E43">
-        <v>128</v>
+        <v>11</v>
       </c>
       <c r="G43">
         <v>5</v>
@@ -9164,13 +9164,13 @@
         <v>2</v>
       </c>
       <c r="C44">
-        <v>116</v>
+        <v>6</v>
       </c>
       <c r="D44">
         <v>2</v>
       </c>
       <c r="E44">
-        <v>197</v>
+        <v>26</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -9228,13 +9228,13 @@
         <v>8</v>
       </c>
       <c r="C46">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="D46">
         <v>6</v>
       </c>
       <c r="E46">
-        <v>201</v>
+        <v>39</v>
       </c>
       <c r="G46">
         <v>7</v>
@@ -9266,7 +9266,7 @@
         <v>8</v>
       </c>
       <c r="E47">
-        <v>357</v>
+        <v>138</v>
       </c>
       <c r="G47">
         <v>4</v>
@@ -9298,7 +9298,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -9330,7 +9330,7 @@
         <v>2</v>
       </c>
       <c r="E49">
-        <v>233</v>
+        <v>11</v>
       </c>
       <c r="G49">
         <v>2</v>
@@ -9362,7 +9362,7 @@
         <v>2</v>
       </c>
       <c r="E50">
-        <v>176</v>
+        <v>13</v>
       </c>
       <c r="G50">
         <v>3</v>
@@ -9394,7 +9394,7 @@
         <v>3</v>
       </c>
       <c r="E51">
-        <v>129</v>
+        <v>11</v>
       </c>
       <c r="G51">
         <v>5</v>
@@ -9426,7 +9426,7 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -9452,13 +9452,13 @@
         <v>3</v>
       </c>
       <c r="C53">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="D53">
         <v>3</v>
       </c>
       <c r="E53">
-        <v>234</v>
+        <v>142</v>
       </c>
       <c r="G53">
         <v>10</v>
@@ -9490,7 +9490,7 @@
         <v>10</v>
       </c>
       <c r="E54">
-        <v>129</v>
+        <v>36</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -9522,7 +9522,7 @@
         <v>4</v>
       </c>
       <c r="E55">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="G55">
         <v>5</v>
@@ -9554,7 +9554,7 @@
         <v>1</v>
       </c>
       <c r="E56">
-        <v>175</v>
+        <v>18</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -9631,7 +9631,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>176</v>
+        <v>18</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -9663,7 +9663,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>188</v>
+        <v>68</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -9727,7 +9727,7 @@
         <v>5</v>
       </c>
       <c r="E5">
-        <v>234</v>
+        <v>122</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -9759,7 +9759,7 @@
         <v>86</v>
       </c>
       <c r="E6">
-        <v>233</v>
+        <v>162</v>
       </c>
       <c r="G6">
         <v>76</v>
@@ -9823,7 +9823,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <v>343</v>
+        <v>57</v>
       </c>
       <c r="G8">
         <v>3</v>
@@ -9855,7 +9855,7 @@
         <v>2</v>
       </c>
       <c r="E9">
-        <v>233</v>
+        <v>21</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -9887,7 +9887,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>128</v>
+        <v>10</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -9951,7 +9951,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>343</v>
+        <v>90</v>
       </c>
       <c r="G12">
         <v>4</v>
@@ -9983,7 +9983,7 @@
         <v>2</v>
       </c>
       <c r="E13">
-        <v>176</v>
+        <v>14</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -10015,7 +10015,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>175</v>
+        <v>18</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -10047,7 +10047,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>233</v>
+        <v>68</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -10079,7 +10079,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>201</v>
+        <v>131</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -10111,7 +10111,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>233</v>
+        <v>161</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -10143,7 +10143,7 @@
         <v>3</v>
       </c>
       <c r="E18">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="G18">
         <v>5</v>
@@ -10175,7 +10175,7 @@
         <v>3</v>
       </c>
       <c r="E19">
-        <v>234</v>
+        <v>71</v>
       </c>
       <c r="G19">
         <v>4</v>
@@ -10207,7 +10207,7 @@
         <v>3</v>
       </c>
       <c r="E20">
-        <v>233</v>
+        <v>13</v>
       </c>
       <c r="G20">
         <v>4</v>
@@ -10239,7 +10239,7 @@
         <v>3</v>
       </c>
       <c r="E21">
-        <v>475</v>
+        <v>102</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -10271,7 +10271,7 @@
         <v>5</v>
       </c>
       <c r="E22">
-        <v>233</v>
+        <v>11</v>
       </c>
       <c r="G22">
         <v>7</v>
@@ -10303,7 +10303,7 @@
         <v>2</v>
       </c>
       <c r="E23">
-        <v>233</v>
+        <v>67</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -10335,7 +10335,7 @@
         <v>1</v>
       </c>
       <c r="E24">
-        <v>120</v>
+        <v>2</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -10367,7 +10367,7 @@
         <v>4</v>
       </c>
       <c r="E25">
-        <v>175</v>
+        <v>18</v>
       </c>
       <c r="G25">
         <v>6</v>
@@ -10399,7 +10399,7 @@
         <v>4</v>
       </c>
       <c r="E26">
-        <v>407</v>
+        <v>82</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -10431,7 +10431,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>233</v>
+        <v>21</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -10463,7 +10463,7 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <v>265</v>
+        <v>32</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -10495,7 +10495,7 @@
         <v>2</v>
       </c>
       <c r="E29">
-        <v>465</v>
+        <v>62</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -10527,7 +10527,7 @@
         <v>1</v>
       </c>
       <c r="E30">
-        <v>128</v>
+        <v>11</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -10559,7 +10559,7 @@
         <v>2</v>
       </c>
       <c r="E31">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -10591,7 +10591,7 @@
         <v>5</v>
       </c>
       <c r="E32">
-        <v>128</v>
+        <v>84</v>
       </c>
       <c r="G32">
         <v>6</v>
@@ -10623,7 +10623,7 @@
         <v>1</v>
       </c>
       <c r="E33">
-        <v>188</v>
+        <v>10</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -10655,7 +10655,7 @@
         <v>12</v>
       </c>
       <c r="E34">
-        <v>176</v>
+        <v>41</v>
       </c>
       <c r="G34">
         <v>14</v>
@@ -10687,7 +10687,7 @@
         <v>1</v>
       </c>
       <c r="E35">
-        <v>357</v>
+        <v>7</v>
       </c>
       <c r="G35">
         <v>2</v>
@@ -10719,7 +10719,7 @@
         <v>3</v>
       </c>
       <c r="E36">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="G36">
         <v>3</v>
@@ -10751,7 +10751,7 @@
         <v>3</v>
       </c>
       <c r="E37">
-        <v>465</v>
+        <v>29</v>
       </c>
       <c r="G37">
         <v>3</v>
@@ -10783,7 +10783,7 @@
         <v>1</v>
       </c>
       <c r="E38">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -10815,7 +10815,7 @@
         <v>18</v>
       </c>
       <c r="E39">
-        <v>343</v>
+        <v>109</v>
       </c>
       <c r="G39">
         <v>2</v>
@@ -10847,7 +10847,7 @@
         <v>7</v>
       </c>
       <c r="E40">
-        <v>188</v>
+        <v>68</v>
       </c>
       <c r="G40">
         <v>8</v>
@@ -10879,7 +10879,7 @@
         <v>1</v>
       </c>
       <c r="E41">
-        <v>465</v>
+        <v>11</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -10911,7 +10911,7 @@
         <v>1</v>
       </c>
       <c r="E42">
-        <v>465</v>
+        <v>61</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -10943,7 +10943,7 @@
         <v>3</v>
       </c>
       <c r="E43">
-        <v>128</v>
+        <v>11</v>
       </c>
       <c r="G43">
         <v>5</v>
@@ -10975,7 +10975,7 @@
         <v>2</v>
       </c>
       <c r="E44">
-        <v>197</v>
+        <v>26</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -11039,7 +11039,7 @@
         <v>6</v>
       </c>
       <c r="E46">
-        <v>201</v>
+        <v>39</v>
       </c>
       <c r="G46">
         <v>7</v>
@@ -11071,7 +11071,7 @@
         <v>5</v>
       </c>
       <c r="E47">
-        <v>357</v>
+        <v>138</v>
       </c>
       <c r="G47">
         <v>4</v>
@@ -11103,7 +11103,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -11135,7 +11135,7 @@
         <v>2</v>
       </c>
       <c r="E49">
-        <v>233</v>
+        <v>11</v>
       </c>
       <c r="G49">
         <v>2</v>
@@ -11167,7 +11167,7 @@
         <v>2</v>
       </c>
       <c r="E50">
-        <v>176</v>
+        <v>13</v>
       </c>
       <c r="G50">
         <v>3</v>
@@ -11199,7 +11199,7 @@
         <v>3</v>
       </c>
       <c r="E51">
-        <v>129</v>
+        <v>11</v>
       </c>
       <c r="G51">
         <v>5</v>
@@ -11231,7 +11231,7 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -11263,7 +11263,7 @@
         <v>3</v>
       </c>
       <c r="E53">
-        <v>234</v>
+        <v>142</v>
       </c>
       <c r="G53">
         <v>8</v>
@@ -11295,7 +11295,7 @@
         <v>10</v>
       </c>
       <c r="E54">
-        <v>129</v>
+        <v>36</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -11327,7 +11327,7 @@
         <v>4</v>
       </c>
       <c r="E55">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="G55">
         <v>5</v>
@@ -11359,7 +11359,7 @@
         <v>1</v>
       </c>
       <c r="E56">
-        <v>175</v>
+        <v>18</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -11436,7 +11436,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>176</v>
+        <v>18</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -11468,7 +11468,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>188</v>
+        <v>68</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -11532,7 +11532,7 @@
         <v>5</v>
       </c>
       <c r="E5">
-        <v>234</v>
+        <v>122</v>
       </c>
       <c r="G5">
         <v>6</v>
@@ -11564,7 +11564,7 @@
         <v>86</v>
       </c>
       <c r="E6">
-        <v>233</v>
+        <v>162</v>
       </c>
       <c r="G6">
         <v>76</v>
@@ -11628,7 +11628,7 @@
         <v>7</v>
       </c>
       <c r="E8">
-        <v>343</v>
+        <v>57</v>
       </c>
       <c r="G8">
         <v>11</v>
@@ -11660,7 +11660,7 @@
         <v>2</v>
       </c>
       <c r="E9">
-        <v>233</v>
+        <v>21</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -11692,7 +11692,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>128</v>
+        <v>10</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -11756,7 +11756,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>343</v>
+        <v>90</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -11788,7 +11788,7 @@
         <v>2</v>
       </c>
       <c r="E13">
-        <v>176</v>
+        <v>14</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -11820,7 +11820,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>175</v>
+        <v>18</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -11852,7 +11852,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>233</v>
+        <v>68</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -11884,7 +11884,7 @@
         <v>2</v>
       </c>
       <c r="E16">
-        <v>201</v>
+        <v>131</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -11916,7 +11916,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>233</v>
+        <v>161</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -11948,7 +11948,7 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -11980,7 +11980,7 @@
         <v>3</v>
       </c>
       <c r="E19">
-        <v>234</v>
+        <v>71</v>
       </c>
       <c r="G19">
         <v>4</v>
@@ -12012,7 +12012,7 @@
         <v>3</v>
       </c>
       <c r="E20">
-        <v>233</v>
+        <v>13</v>
       </c>
       <c r="G20">
         <v>4</v>
@@ -12044,7 +12044,7 @@
         <v>14</v>
       </c>
       <c r="E21">
-        <v>475</v>
+        <v>102</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -12076,7 +12076,7 @@
         <v>4</v>
       </c>
       <c r="E22">
-        <v>233</v>
+        <v>11</v>
       </c>
       <c r="G22">
         <v>6</v>
@@ -12108,7 +12108,7 @@
         <v>2</v>
       </c>
       <c r="E23">
-        <v>233</v>
+        <v>67</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -12140,7 +12140,7 @@
         <v>1</v>
       </c>
       <c r="E24">
-        <v>120</v>
+        <v>2</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -12172,7 +12172,7 @@
         <v>4</v>
       </c>
       <c r="E25">
-        <v>175</v>
+        <v>18</v>
       </c>
       <c r="G25">
         <v>6</v>
@@ -12204,7 +12204,7 @@
         <v>21</v>
       </c>
       <c r="E26">
-        <v>407</v>
+        <v>82</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -12236,7 +12236,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>233</v>
+        <v>21</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -12268,7 +12268,7 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <v>265</v>
+        <v>32</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -12300,7 +12300,7 @@
         <v>9</v>
       </c>
       <c r="E29">
-        <v>465</v>
+        <v>62</v>
       </c>
       <c r="G29">
         <v>5</v>
@@ -12332,7 +12332,7 @@
         <v>1</v>
       </c>
       <c r="E30">
-        <v>128</v>
+        <v>11</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -12364,7 +12364,7 @@
         <v>2</v>
       </c>
       <c r="E31">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -12396,7 +12396,7 @@
         <v>5</v>
       </c>
       <c r="E32">
-        <v>128</v>
+        <v>84</v>
       </c>
       <c r="G32">
         <v>6</v>
@@ -12428,7 +12428,7 @@
         <v>1</v>
       </c>
       <c r="E33">
-        <v>188</v>
+        <v>10</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -12460,7 +12460,7 @@
         <v>12</v>
       </c>
       <c r="E34">
-        <v>176</v>
+        <v>41</v>
       </c>
       <c r="G34">
         <v>14</v>
@@ -12492,7 +12492,7 @@
         <v>4</v>
       </c>
       <c r="E35">
-        <v>357</v>
+        <v>7</v>
       </c>
       <c r="G35">
         <v>2</v>
@@ -12524,7 +12524,7 @@
         <v>3</v>
       </c>
       <c r="E36">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="G36">
         <v>3</v>
@@ -12556,7 +12556,7 @@
         <v>3</v>
       </c>
       <c r="E37">
-        <v>465</v>
+        <v>29</v>
       </c>
       <c r="G37">
         <v>3</v>
@@ -12588,7 +12588,7 @@
         <v>1</v>
       </c>
       <c r="E38">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -12620,7 +12620,7 @@
         <v>2</v>
       </c>
       <c r="E39">
-        <v>343</v>
+        <v>109</v>
       </c>
       <c r="G39">
         <v>2</v>
@@ -12652,7 +12652,7 @@
         <v>5</v>
       </c>
       <c r="E40">
-        <v>188</v>
+        <v>68</v>
       </c>
       <c r="G40">
         <v>6</v>
@@ -12684,7 +12684,7 @@
         <v>4</v>
       </c>
       <c r="E41">
-        <v>465</v>
+        <v>11</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -12716,7 +12716,7 @@
         <v>1</v>
       </c>
       <c r="E42">
-        <v>465</v>
+        <v>61</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -12748,7 +12748,7 @@
         <v>3</v>
       </c>
       <c r="E43">
-        <v>128</v>
+        <v>11</v>
       </c>
       <c r="G43">
         <v>5</v>
@@ -12780,7 +12780,7 @@
         <v>2</v>
       </c>
       <c r="E44">
-        <v>197</v>
+        <v>26</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -12844,7 +12844,7 @@
         <v>6</v>
       </c>
       <c r="E46">
-        <v>201</v>
+        <v>39</v>
       </c>
       <c r="G46">
         <v>7</v>
@@ -12876,7 +12876,7 @@
         <v>11</v>
       </c>
       <c r="E47">
-        <v>357</v>
+        <v>138</v>
       </c>
       <c r="G47">
         <v>4</v>
@@ -12908,7 +12908,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -12940,7 +12940,7 @@
         <v>2</v>
       </c>
       <c r="E49">
-        <v>233</v>
+        <v>11</v>
       </c>
       <c r="G49">
         <v>2</v>
@@ -12972,7 +12972,7 @@
         <v>2</v>
       </c>
       <c r="E50">
-        <v>176</v>
+        <v>13</v>
       </c>
       <c r="G50">
         <v>3</v>
@@ -13004,7 +13004,7 @@
         <v>3</v>
       </c>
       <c r="E51">
-        <v>129</v>
+        <v>11</v>
       </c>
       <c r="G51">
         <v>5</v>
@@ -13036,7 +13036,7 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -13068,7 +13068,7 @@
         <v>3</v>
       </c>
       <c r="E53">
-        <v>234</v>
+        <v>142</v>
       </c>
       <c r="G53">
         <v>3</v>
@@ -13100,7 +13100,7 @@
         <v>1</v>
       </c>
       <c r="E54">
-        <v>129</v>
+        <v>36</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -13132,7 +13132,7 @@
         <v>4</v>
       </c>
       <c r="E55">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="G55">
         <v>5</v>
@@ -13164,7 +13164,7 @@
         <v>1</v>
       </c>
       <c r="E56">
-        <v>175</v>
+        <v>18</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -13241,7 +13241,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>176</v>
+        <v>18</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -13273,7 +13273,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>188</v>
+        <v>68</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -13337,7 +13337,7 @@
         <v>5</v>
       </c>
       <c r="E5">
-        <v>234</v>
+        <v>122</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -13369,7 +13369,7 @@
         <v>86</v>
       </c>
       <c r="E6">
-        <v>233</v>
+        <v>162</v>
       </c>
       <c r="G6">
         <v>76</v>
@@ -13433,7 +13433,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <v>343</v>
+        <v>57</v>
       </c>
       <c r="G8">
         <v>3</v>
@@ -13465,7 +13465,7 @@
         <v>2</v>
       </c>
       <c r="E9">
-        <v>233</v>
+        <v>21</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -13497,7 +13497,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>128</v>
+        <v>10</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -13561,7 +13561,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>343</v>
+        <v>90</v>
       </c>
       <c r="G12">
         <v>4</v>
@@ -13593,7 +13593,7 @@
         <v>2</v>
       </c>
       <c r="E13">
-        <v>176</v>
+        <v>14</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -13625,7 +13625,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>175</v>
+        <v>18</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -13657,7 +13657,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>233</v>
+        <v>68</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -13689,7 +13689,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>201</v>
+        <v>131</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -13721,7 +13721,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>233</v>
+        <v>161</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -13753,7 +13753,7 @@
         <v>3</v>
       </c>
       <c r="E18">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="G18">
         <v>5</v>
@@ -13785,7 +13785,7 @@
         <v>3</v>
       </c>
       <c r="E19">
-        <v>234</v>
+        <v>71</v>
       </c>
       <c r="G19">
         <v>4</v>
@@ -13817,7 +13817,7 @@
         <v>3</v>
       </c>
       <c r="E20">
-        <v>233</v>
+        <v>13</v>
       </c>
       <c r="G20">
         <v>4</v>
@@ -13849,7 +13849,7 @@
         <v>3</v>
       </c>
       <c r="E21">
-        <v>475</v>
+        <v>102</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -13881,7 +13881,7 @@
         <v>5</v>
       </c>
       <c r="E22">
-        <v>233</v>
+        <v>11</v>
       </c>
       <c r="G22">
         <v>7</v>
@@ -13913,7 +13913,7 @@
         <v>2</v>
       </c>
       <c r="E23">
-        <v>233</v>
+        <v>67</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -13945,7 +13945,7 @@
         <v>1</v>
       </c>
       <c r="E24">
-        <v>120</v>
+        <v>2</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -13977,7 +13977,7 @@
         <v>4</v>
       </c>
       <c r="E25">
-        <v>175</v>
+        <v>18</v>
       </c>
       <c r="G25">
         <v>6</v>
@@ -14009,7 +14009,7 @@
         <v>4</v>
       </c>
       <c r="E26">
-        <v>407</v>
+        <v>82</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -14041,7 +14041,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>233</v>
+        <v>21</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -14073,7 +14073,7 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <v>265</v>
+        <v>32</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -14105,7 +14105,7 @@
         <v>2</v>
       </c>
       <c r="E29">
-        <v>465</v>
+        <v>62</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -14137,7 +14137,7 @@
         <v>1</v>
       </c>
       <c r="E30">
-        <v>128</v>
+        <v>11</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -14169,7 +14169,7 @@
         <v>2</v>
       </c>
       <c r="E31">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -14201,7 +14201,7 @@
         <v>5</v>
       </c>
       <c r="E32">
-        <v>128</v>
+        <v>84</v>
       </c>
       <c r="G32">
         <v>6</v>
@@ -14233,7 +14233,7 @@
         <v>1</v>
       </c>
       <c r="E33">
-        <v>188</v>
+        <v>10</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -14265,7 +14265,7 @@
         <v>12</v>
       </c>
       <c r="E34">
-        <v>176</v>
+        <v>41</v>
       </c>
       <c r="G34">
         <v>14</v>
@@ -14297,7 +14297,7 @@
         <v>1</v>
       </c>
       <c r="E35">
-        <v>357</v>
+        <v>7</v>
       </c>
       <c r="G35">
         <v>2</v>
@@ -14329,7 +14329,7 @@
         <v>3</v>
       </c>
       <c r="E36">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="G36">
         <v>3</v>
@@ -14361,7 +14361,7 @@
         <v>3</v>
       </c>
       <c r="E37">
-        <v>465</v>
+        <v>29</v>
       </c>
       <c r="G37">
         <v>3</v>
@@ -14393,7 +14393,7 @@
         <v>1</v>
       </c>
       <c r="E38">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -14425,7 +14425,7 @@
         <v>18</v>
       </c>
       <c r="E39">
-        <v>343</v>
+        <v>109</v>
       </c>
       <c r="G39">
         <v>2</v>
@@ -14457,7 +14457,7 @@
         <v>7</v>
       </c>
       <c r="E40">
-        <v>188</v>
+        <v>68</v>
       </c>
       <c r="G40">
         <v>8</v>
@@ -14489,7 +14489,7 @@
         <v>1</v>
       </c>
       <c r="E41">
-        <v>465</v>
+        <v>11</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -14521,7 +14521,7 @@
         <v>1</v>
       </c>
       <c r="E42">
-        <v>465</v>
+        <v>61</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -14553,7 +14553,7 @@
         <v>3</v>
       </c>
       <c r="E43">
-        <v>128</v>
+        <v>11</v>
       </c>
       <c r="G43">
         <v>5</v>
@@ -14585,7 +14585,7 @@
         <v>2</v>
       </c>
       <c r="E44">
-        <v>197</v>
+        <v>26</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -14649,7 +14649,7 @@
         <v>6</v>
       </c>
       <c r="E46">
-        <v>201</v>
+        <v>39</v>
       </c>
       <c r="G46">
         <v>7</v>
@@ -14681,7 +14681,7 @@
         <v>5</v>
       </c>
       <c r="E47">
-        <v>357</v>
+        <v>138</v>
       </c>
       <c r="G47">
         <v>4</v>
@@ -14713,7 +14713,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -14745,7 +14745,7 @@
         <v>2</v>
       </c>
       <c r="E49">
-        <v>233</v>
+        <v>11</v>
       </c>
       <c r="G49">
         <v>2</v>
@@ -14777,7 +14777,7 @@
         <v>2</v>
       </c>
       <c r="E50">
-        <v>176</v>
+        <v>13</v>
       </c>
       <c r="G50">
         <v>3</v>
@@ -14809,7 +14809,7 @@
         <v>3</v>
       </c>
       <c r="E51">
-        <v>129</v>
+        <v>11</v>
       </c>
       <c r="G51">
         <v>5</v>
@@ -14841,7 +14841,7 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -14873,7 +14873,7 @@
         <v>3</v>
       </c>
       <c r="E53">
-        <v>234</v>
+        <v>142</v>
       </c>
       <c r="G53">
         <v>8</v>
@@ -14905,7 +14905,7 @@
         <v>10</v>
       </c>
       <c r="E54">
-        <v>129</v>
+        <v>36</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -14937,7 +14937,7 @@
         <v>4</v>
       </c>
       <c r="E55">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="G55">
         <v>5</v>
@@ -14969,7 +14969,7 @@
         <v>1</v>
       </c>
       <c r="E56">
-        <v>175</v>
+        <v>18</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -15046,7 +15046,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>176</v>
+        <v>18</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -15078,7 +15078,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>188</v>
+        <v>68</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -15142,7 +15142,7 @@
         <v>5</v>
       </c>
       <c r="E5">
-        <v>234</v>
+        <v>122</v>
       </c>
       <c r="G5">
         <v>6</v>
@@ -15174,7 +15174,7 @@
         <v>86</v>
       </c>
       <c r="E6">
-        <v>233</v>
+        <v>162</v>
       </c>
       <c r="G6">
         <v>76</v>
@@ -15238,7 +15238,7 @@
         <v>7</v>
       </c>
       <c r="E8">
-        <v>343</v>
+        <v>57</v>
       </c>
       <c r="G8">
         <v>11</v>
@@ -15270,7 +15270,7 @@
         <v>2</v>
       </c>
       <c r="E9">
-        <v>233</v>
+        <v>21</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -15302,7 +15302,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>128</v>
+        <v>10</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -15366,7 +15366,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>343</v>
+        <v>90</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -15398,7 +15398,7 @@
         <v>2</v>
       </c>
       <c r="E13">
-        <v>176</v>
+        <v>14</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -15430,7 +15430,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>175</v>
+        <v>18</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -15462,7 +15462,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>233</v>
+        <v>68</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -15494,7 +15494,7 @@
         <v>2</v>
       </c>
       <c r="E16">
-        <v>201</v>
+        <v>131</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -15526,7 +15526,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>233</v>
+        <v>161</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -15558,7 +15558,7 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -15590,7 +15590,7 @@
         <v>3</v>
       </c>
       <c r="E19">
-        <v>234</v>
+        <v>71</v>
       </c>
       <c r="G19">
         <v>4</v>
@@ -15622,7 +15622,7 @@
         <v>3</v>
       </c>
       <c r="E20">
-        <v>233</v>
+        <v>13</v>
       </c>
       <c r="G20">
         <v>4</v>
@@ -15654,7 +15654,7 @@
         <v>4</v>
       </c>
       <c r="E21">
-        <v>475</v>
+        <v>102</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -15686,7 +15686,7 @@
         <v>4</v>
       </c>
       <c r="E22">
-        <v>233</v>
+        <v>11</v>
       </c>
       <c r="G22">
         <v>6</v>
@@ -15718,7 +15718,7 @@
         <v>2</v>
       </c>
       <c r="E23">
-        <v>233</v>
+        <v>67</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -15750,7 +15750,7 @@
         <v>1</v>
       </c>
       <c r="E24">
-        <v>120</v>
+        <v>2</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -15782,7 +15782,7 @@
         <v>4</v>
       </c>
       <c r="E25">
-        <v>175</v>
+        <v>18</v>
       </c>
       <c r="G25">
         <v>6</v>
@@ -15814,7 +15814,7 @@
         <v>4</v>
       </c>
       <c r="E26">
-        <v>407</v>
+        <v>82</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -15846,7 +15846,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>233</v>
+        <v>21</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -15878,7 +15878,7 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <v>265</v>
+        <v>32</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -15910,7 +15910,7 @@
         <v>9</v>
       </c>
       <c r="E29">
-        <v>465</v>
+        <v>62</v>
       </c>
       <c r="G29">
         <v>5</v>
@@ -15942,7 +15942,7 @@
         <v>1</v>
       </c>
       <c r="E30">
-        <v>128</v>
+        <v>11</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -15974,7 +15974,7 @@
         <v>2</v>
       </c>
       <c r="E31">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -16006,7 +16006,7 @@
         <v>5</v>
       </c>
       <c r="E32">
-        <v>128</v>
+        <v>84</v>
       </c>
       <c r="G32">
         <v>6</v>
@@ -16038,7 +16038,7 @@
         <v>1</v>
       </c>
       <c r="E33">
-        <v>188</v>
+        <v>10</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -16070,7 +16070,7 @@
         <v>12</v>
       </c>
       <c r="E34">
-        <v>176</v>
+        <v>41</v>
       </c>
       <c r="G34">
         <v>14</v>
@@ -16102,7 +16102,7 @@
         <v>1</v>
       </c>
       <c r="E35">
-        <v>357</v>
+        <v>7</v>
       </c>
       <c r="G35">
         <v>2</v>
@@ -16134,7 +16134,7 @@
         <v>3</v>
       </c>
       <c r="E36">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="G36">
         <v>3</v>
@@ -16166,7 +16166,7 @@
         <v>3</v>
       </c>
       <c r="E37">
-        <v>465</v>
+        <v>29</v>
       </c>
       <c r="G37">
         <v>3</v>
@@ -16198,7 +16198,7 @@
         <v>1</v>
       </c>
       <c r="E38">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -16230,7 +16230,7 @@
         <v>2</v>
       </c>
       <c r="E39">
-        <v>343</v>
+        <v>109</v>
       </c>
       <c r="G39">
         <v>2</v>
@@ -16262,7 +16262,7 @@
         <v>9</v>
       </c>
       <c r="E40">
-        <v>188</v>
+        <v>68</v>
       </c>
       <c r="G40">
         <v>6</v>
@@ -16294,7 +16294,7 @@
         <v>1</v>
       </c>
       <c r="E41">
-        <v>465</v>
+        <v>11</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -16326,7 +16326,7 @@
         <v>1</v>
       </c>
       <c r="E42">
-        <v>465</v>
+        <v>61</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -16358,7 +16358,7 @@
         <v>3</v>
       </c>
       <c r="E43">
-        <v>128</v>
+        <v>11</v>
       </c>
       <c r="G43">
         <v>5</v>
@@ -16390,7 +16390,7 @@
         <v>2</v>
       </c>
       <c r="E44">
-        <v>197</v>
+        <v>26</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -16454,7 +16454,7 @@
         <v>6</v>
       </c>
       <c r="E46">
-        <v>201</v>
+        <v>39</v>
       </c>
       <c r="G46">
         <v>7</v>
@@ -16486,7 +16486,7 @@
         <v>7</v>
       </c>
       <c r="E47">
-        <v>357</v>
+        <v>138</v>
       </c>
       <c r="G47">
         <v>4</v>
@@ -16518,7 +16518,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -16550,7 +16550,7 @@
         <v>2</v>
       </c>
       <c r="E49">
-        <v>233</v>
+        <v>11</v>
       </c>
       <c r="G49">
         <v>2</v>
@@ -16582,7 +16582,7 @@
         <v>2</v>
       </c>
       <c r="E50">
-        <v>176</v>
+        <v>13</v>
       </c>
       <c r="G50">
         <v>3</v>
@@ -16614,7 +16614,7 @@
         <v>3</v>
       </c>
       <c r="E51">
-        <v>129</v>
+        <v>11</v>
       </c>
       <c r="G51">
         <v>5</v>
@@ -16646,7 +16646,7 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -16678,7 +16678,7 @@
         <v>3</v>
       </c>
       <c r="E53">
-        <v>234</v>
+        <v>142</v>
       </c>
       <c r="G53">
         <v>3</v>
@@ -16710,7 +16710,7 @@
         <v>1</v>
       </c>
       <c r="E54">
-        <v>129</v>
+        <v>36</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -16742,7 +16742,7 @@
         <v>4</v>
       </c>
       <c r="E55">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="G55">
         <v>5</v>
@@ -16774,7 +16774,7 @@
         <v>1</v>
       </c>
       <c r="E56">
-        <v>175</v>
+        <v>18</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -16851,7 +16851,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>176</v>
+        <v>18</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -16883,7 +16883,7 @@
         <v>8</v>
       </c>
       <c r="E3">
-        <v>188</v>
+        <v>68</v>
       </c>
       <c r="G3">
         <v>5</v>
@@ -16947,7 +16947,7 @@
         <v>5</v>
       </c>
       <c r="E5">
-        <v>234</v>
+        <v>122</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -16979,7 +16979,7 @@
         <v>86</v>
       </c>
       <c r="E6">
-        <v>233</v>
+        <v>162</v>
       </c>
       <c r="G6">
         <v>76</v>
@@ -17043,7 +17043,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <v>343</v>
+        <v>57</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -17075,7 +17075,7 @@
         <v>2</v>
       </c>
       <c r="E9">
-        <v>233</v>
+        <v>21</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -17107,7 +17107,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>128</v>
+        <v>10</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -17171,7 +17171,7 @@
         <v>16</v>
       </c>
       <c r="E12">
-        <v>343</v>
+        <v>90</v>
       </c>
       <c r="G12">
         <v>6</v>
@@ -17203,7 +17203,7 @@
         <v>2</v>
       </c>
       <c r="E13">
-        <v>176</v>
+        <v>14</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -17235,7 +17235,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>175</v>
+        <v>18</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -17267,7 +17267,7 @@
         <v>3</v>
       </c>
       <c r="E15">
-        <v>233</v>
+        <v>68</v>
       </c>
       <c r="G15">
         <v>4</v>
@@ -17299,7 +17299,7 @@
         <v>43</v>
       </c>
       <c r="E16">
-        <v>201</v>
+        <v>131</v>
       </c>
       <c r="G16">
         <v>30</v>
@@ -17331,7 +17331,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>233</v>
+        <v>161</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -17363,7 +17363,7 @@
         <v>3</v>
       </c>
       <c r="E18">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="G18">
         <v>5</v>
@@ -17395,7 +17395,7 @@
         <v>3</v>
       </c>
       <c r="E19">
-        <v>234</v>
+        <v>71</v>
       </c>
       <c r="G19">
         <v>4</v>
@@ -17427,7 +17427,7 @@
         <v>3</v>
       </c>
       <c r="E20">
-        <v>233</v>
+        <v>13</v>
       </c>
       <c r="G20">
         <v>4</v>
@@ -17459,7 +17459,7 @@
         <v>15</v>
       </c>
       <c r="E21">
-        <v>475</v>
+        <v>102</v>
       </c>
       <c r="G21">
         <v>20</v>
@@ -17491,7 +17491,7 @@
         <v>5</v>
       </c>
       <c r="E22">
-        <v>233</v>
+        <v>11</v>
       </c>
       <c r="G22">
         <v>7</v>
@@ -17523,7 +17523,7 @@
         <v>2</v>
       </c>
       <c r="E23">
-        <v>233</v>
+        <v>67</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -17555,7 +17555,7 @@
         <v>1</v>
       </c>
       <c r="E24">
-        <v>120</v>
+        <v>2</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -17587,7 +17587,7 @@
         <v>4</v>
       </c>
       <c r="E25">
-        <v>175</v>
+        <v>18</v>
       </c>
       <c r="G25">
         <v>6</v>
@@ -17619,7 +17619,7 @@
         <v>8</v>
       </c>
       <c r="E26">
-        <v>407</v>
+        <v>82</v>
       </c>
       <c r="G26">
         <v>7</v>
@@ -17651,7 +17651,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>233</v>
+        <v>21</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -17683,7 +17683,7 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <v>265</v>
+        <v>32</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -17715,7 +17715,7 @@
         <v>2</v>
       </c>
       <c r="E29">
-        <v>465</v>
+        <v>62</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -17747,7 +17747,7 @@
         <v>1</v>
       </c>
       <c r="E30">
-        <v>128</v>
+        <v>11</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -17779,7 +17779,7 @@
         <v>5</v>
       </c>
       <c r="E31">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="G31">
         <v>8</v>
@@ -17811,7 +17811,7 @@
         <v>5</v>
       </c>
       <c r="E32">
-        <v>128</v>
+        <v>84</v>
       </c>
       <c r="G32">
         <v>6</v>
@@ -17843,7 +17843,7 @@
         <v>1</v>
       </c>
       <c r="E33">
-        <v>188</v>
+        <v>10</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -17875,7 +17875,7 @@
         <v>12</v>
       </c>
       <c r="E34">
-        <v>176</v>
+        <v>41</v>
       </c>
       <c r="G34">
         <v>14</v>
@@ -17907,7 +17907,7 @@
         <v>1</v>
       </c>
       <c r="E35">
-        <v>357</v>
+        <v>7</v>
       </c>
       <c r="G35">
         <v>2</v>
@@ -17939,7 +17939,7 @@
         <v>3</v>
       </c>
       <c r="E36">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="G36">
         <v>3</v>
@@ -17971,7 +17971,7 @@
         <v>3</v>
       </c>
       <c r="E37">
-        <v>465</v>
+        <v>29</v>
       </c>
       <c r="G37">
         <v>5</v>
@@ -18003,7 +18003,7 @@
         <v>1</v>
       </c>
       <c r="E38">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -18035,7 +18035,7 @@
         <v>21</v>
       </c>
       <c r="E39">
-        <v>343</v>
+        <v>109</v>
       </c>
       <c r="G39">
         <v>21</v>
@@ -18067,7 +18067,7 @@
         <v>7</v>
       </c>
       <c r="E40">
-        <v>188</v>
+        <v>68</v>
       </c>
       <c r="G40">
         <v>8</v>
@@ -18099,7 +18099,7 @@
         <v>3</v>
       </c>
       <c r="E41">
-        <v>465</v>
+        <v>11</v>
       </c>
       <c r="G41">
         <v>4</v>
@@ -18131,7 +18131,7 @@
         <v>5</v>
       </c>
       <c r="E42">
-        <v>465</v>
+        <v>61</v>
       </c>
       <c r="G42">
         <v>5</v>
@@ -18163,7 +18163,7 @@
         <v>3</v>
       </c>
       <c r="E43">
-        <v>128</v>
+        <v>11</v>
       </c>
       <c r="G43">
         <v>5</v>
@@ -18195,7 +18195,7 @@
         <v>2</v>
       </c>
       <c r="E44">
-        <v>197</v>
+        <v>26</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -18259,7 +18259,7 @@
         <v>6</v>
       </c>
       <c r="E46">
-        <v>201</v>
+        <v>39</v>
       </c>
       <c r="G46">
         <v>7</v>
@@ -18291,7 +18291,7 @@
         <v>20</v>
       </c>
       <c r="E47">
-        <v>357</v>
+        <v>138</v>
       </c>
       <c r="G47">
         <v>22</v>
@@ -18323,7 +18323,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -18355,7 +18355,7 @@
         <v>2</v>
       </c>
       <c r="E49">
-        <v>233</v>
+        <v>11</v>
       </c>
       <c r="G49">
         <v>2</v>
@@ -18387,7 +18387,7 @@
         <v>2</v>
       </c>
       <c r="E50">
-        <v>176</v>
+        <v>13</v>
       </c>
       <c r="G50">
         <v>3</v>
@@ -18419,7 +18419,7 @@
         <v>3</v>
       </c>
       <c r="E51">
-        <v>129</v>
+        <v>11</v>
       </c>
       <c r="G51">
         <v>5</v>
@@ -18451,7 +18451,7 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -18483,7 +18483,7 @@
         <v>3</v>
       </c>
       <c r="E53">
-        <v>234</v>
+        <v>142</v>
       </c>
       <c r="G53">
         <v>24</v>
@@ -18515,7 +18515,7 @@
         <v>13</v>
       </c>
       <c r="E54">
-        <v>129</v>
+        <v>36</v>
       </c>
       <c r="G54">
         <v>6</v>
@@ -18547,7 +18547,7 @@
         <v>4</v>
       </c>
       <c r="E55">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="G55">
         <v>5</v>
@@ -18579,7 +18579,7 @@
         <v>1</v>
       </c>
       <c r="E56">
-        <v>175</v>
+        <v>18</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -18656,7 +18656,7 @@
         <v>7</v>
       </c>
       <c r="E2">
-        <v>176</v>
+        <v>18</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -18688,7 +18688,7 @@
         <v>8</v>
       </c>
       <c r="E3">
-        <v>188</v>
+        <v>68</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -18752,7 +18752,7 @@
         <v>63</v>
       </c>
       <c r="E5">
-        <v>234</v>
+        <v>122</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -18784,7 +18784,7 @@
         <v>79</v>
       </c>
       <c r="E6">
-        <v>233</v>
+        <v>162</v>
       </c>
       <c r="G6">
         <v>76</v>
@@ -18848,7 +18848,7 @@
         <v>7</v>
       </c>
       <c r="E8">
-        <v>343</v>
+        <v>57</v>
       </c>
       <c r="G8">
         <v>3</v>
@@ -18880,7 +18880,7 @@
         <v>5</v>
       </c>
       <c r="E9">
-        <v>233</v>
+        <v>21</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -18912,7 +18912,7 @@
         <v>7</v>
       </c>
       <c r="E10">
-        <v>128</v>
+        <v>10</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -18976,7 +18976,7 @@
         <v>7</v>
       </c>
       <c r="E12">
-        <v>343</v>
+        <v>90</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -19008,7 +19008,7 @@
         <v>12</v>
       </c>
       <c r="E13">
-        <v>176</v>
+        <v>14</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -19040,7 +19040,7 @@
         <v>6</v>
       </c>
       <c r="E14">
-        <v>175</v>
+        <v>18</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -19072,7 +19072,7 @@
         <v>5</v>
       </c>
       <c r="E15">
-        <v>233</v>
+        <v>68</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -19104,7 +19104,7 @@
         <v>2</v>
       </c>
       <c r="E16">
-        <v>201</v>
+        <v>131</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -19136,7 +19136,7 @@
         <v>4</v>
       </c>
       <c r="E17">
-        <v>233</v>
+        <v>161</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -19168,7 +19168,7 @@
         <v>9</v>
       </c>
       <c r="E18">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="G18">
         <v>5</v>
@@ -19200,7 +19200,7 @@
         <v>7</v>
       </c>
       <c r="E19">
-        <v>234</v>
+        <v>71</v>
       </c>
       <c r="G19">
         <v>4</v>
@@ -19232,7 +19232,7 @@
         <v>8</v>
       </c>
       <c r="E20">
-        <v>233</v>
+        <v>13</v>
       </c>
       <c r="G20">
         <v>4</v>
@@ -19264,7 +19264,7 @@
         <v>19</v>
       </c>
       <c r="E21">
-        <v>475</v>
+        <v>102</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -19296,7 +19296,7 @@
         <v>5</v>
       </c>
       <c r="E22">
-        <v>233</v>
+        <v>11</v>
       </c>
       <c r="G22">
         <v>7</v>
@@ -19328,7 +19328,7 @@
         <v>8</v>
       </c>
       <c r="E23">
-        <v>233</v>
+        <v>67</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -19360,7 +19360,7 @@
         <v>2</v>
       </c>
       <c r="E24">
-        <v>120</v>
+        <v>2</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -19392,7 +19392,7 @@
         <v>11</v>
       </c>
       <c r="E25">
-        <v>175</v>
+        <v>18</v>
       </c>
       <c r="G25">
         <v>6</v>
@@ -19424,7 +19424,7 @@
         <v>61</v>
       </c>
       <c r="E26">
-        <v>407</v>
+        <v>82</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -19456,7 +19456,7 @@
         <v>5</v>
       </c>
       <c r="E27">
-        <v>233</v>
+        <v>21</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -19488,7 +19488,7 @@
         <v>16</v>
       </c>
       <c r="E28">
-        <v>265</v>
+        <v>32</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -19520,7 +19520,7 @@
         <v>12</v>
       </c>
       <c r="E29">
-        <v>465</v>
+        <v>62</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -19552,7 +19552,7 @@
         <v>9</v>
       </c>
       <c r="E30">
-        <v>128</v>
+        <v>11</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -19584,7 +19584,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -19616,7 +19616,7 @@
         <v>11</v>
       </c>
       <c r="E32">
-        <v>128</v>
+        <v>84</v>
       </c>
       <c r="G32">
         <v>6</v>
@@ -19648,7 +19648,7 @@
         <v>8</v>
       </c>
       <c r="E33">
-        <v>188</v>
+        <v>10</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -19680,7 +19680,7 @@
         <v>37</v>
       </c>
       <c r="E34">
-        <v>176</v>
+        <v>41</v>
       </c>
       <c r="G34">
         <v>14</v>
@@ -19712,7 +19712,7 @@
         <v>7</v>
       </c>
       <c r="E35">
-        <v>357</v>
+        <v>7</v>
       </c>
       <c r="G35">
         <v>2</v>
@@ -19744,7 +19744,7 @@
         <v>11</v>
       </c>
       <c r="E36">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="G36">
         <v>3</v>
@@ -19776,7 +19776,7 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>465</v>
+        <v>29</v>
       </c>
       <c r="G37">
         <v>3</v>
@@ -19808,7 +19808,7 @@
         <v>12</v>
       </c>
       <c r="E38">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -19840,7 +19840,7 @@
         <v>26</v>
       </c>
       <c r="E39">
-        <v>343</v>
+        <v>109</v>
       </c>
       <c r="G39">
         <v>2</v>
@@ -19872,7 +19872,7 @@
         <v>34</v>
       </c>
       <c r="E40">
-        <v>188</v>
+        <v>68</v>
       </c>
       <c r="G40">
         <v>6</v>
@@ -19904,7 +19904,7 @@
         <v>7</v>
       </c>
       <c r="E41">
-        <v>465</v>
+        <v>11</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -19936,7 +19936,7 @@
         <v>6</v>
       </c>
       <c r="E42">
-        <v>465</v>
+        <v>61</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -19968,7 +19968,7 @@
         <v>9</v>
       </c>
       <c r="E43">
-        <v>128</v>
+        <v>11</v>
       </c>
       <c r="G43">
         <v>5</v>
@@ -20000,7 +20000,7 @@
         <v>14</v>
       </c>
       <c r="E44">
-        <v>197</v>
+        <v>26</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -20064,7 +20064,7 @@
         <v>35</v>
       </c>
       <c r="E46">
-        <v>201</v>
+        <v>39</v>
       </c>
       <c r="G46">
         <v>7</v>
@@ -20096,7 +20096,7 @@
         <v>9</v>
       </c>
       <c r="E47">
-        <v>357</v>
+        <v>138</v>
       </c>
       <c r="G47">
         <v>4</v>
@@ -20128,7 +20128,7 @@
         <v>9</v>
       </c>
       <c r="E48">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -20160,7 +20160,7 @@
         <v>6</v>
       </c>
       <c r="E49">
-        <v>233</v>
+        <v>11</v>
       </c>
       <c r="G49">
         <v>2</v>
@@ -20192,7 +20192,7 @@
         <v>11</v>
       </c>
       <c r="E50">
-        <v>176</v>
+        <v>13</v>
       </c>
       <c r="G50">
         <v>3</v>
@@ -20224,7 +20224,7 @@
         <v>9</v>
       </c>
       <c r="E51">
-        <v>129</v>
+        <v>11</v>
       </c>
       <c r="G51">
         <v>5</v>
@@ -20256,7 +20256,7 @@
         <v>7</v>
       </c>
       <c r="E52">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -20288,7 +20288,7 @@
         <v>24</v>
       </c>
       <c r="E53">
-        <v>234</v>
+        <v>142</v>
       </c>
       <c r="G53">
         <v>3</v>
@@ -20320,7 +20320,7 @@
         <v>11</v>
       </c>
       <c r="E54">
-        <v>129</v>
+        <v>36</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -20352,7 +20352,7 @@
         <v>17</v>
       </c>
       <c r="E55">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="G55">
         <v>5</v>
@@ -20384,7 +20384,7 @@
         <v>10</v>
       </c>
       <c r="E56">
-        <v>175</v>
+        <v>18</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -20461,7 +20461,7 @@
         <v>7</v>
       </c>
       <c r="E2">
-        <v>176</v>
+        <v>18</v>
       </c>
       <c r="G2">
         <v>14</v>
@@ -20493,7 +20493,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>188</v>
+        <v>68</v>
       </c>
       <c r="G3">
         <v>7</v>
@@ -20557,7 +20557,7 @@
         <v>64</v>
       </c>
       <c r="E5">
-        <v>234</v>
+        <v>122</v>
       </c>
       <c r="G5">
         <v>152</v>
@@ -20589,7 +20589,7 @@
         <v>79</v>
       </c>
       <c r="E6">
-        <v>233</v>
+        <v>162</v>
       </c>
       <c r="G6">
         <v>202</v>
@@ -20653,7 +20653,7 @@
         <v>12</v>
       </c>
       <c r="E8">
-        <v>343</v>
+        <v>57</v>
       </c>
       <c r="G8">
         <v>16</v>
@@ -20685,7 +20685,7 @@
         <v>5</v>
       </c>
       <c r="E9">
-        <v>233</v>
+        <v>21</v>
       </c>
       <c r="G9">
         <v>15</v>
@@ -20717,7 +20717,7 @@
         <v>7</v>
       </c>
       <c r="E10">
-        <v>128</v>
+        <v>10</v>
       </c>
       <c r="G10">
         <v>13</v>
@@ -20781,7 +20781,7 @@
         <v>8</v>
       </c>
       <c r="E12">
-        <v>343</v>
+        <v>90</v>
       </c>
       <c r="G12">
         <v>10</v>
@@ -20813,7 +20813,7 @@
         <v>12</v>
       </c>
       <c r="E13">
-        <v>176</v>
+        <v>14</v>
       </c>
       <c r="G13">
         <v>18</v>
@@ -20845,7 +20845,7 @@
         <v>6</v>
       </c>
       <c r="E14">
-        <v>175</v>
+        <v>18</v>
       </c>
       <c r="G14">
         <v>12</v>
@@ -20877,7 +20877,7 @@
         <v>5</v>
       </c>
       <c r="E15">
-        <v>233</v>
+        <v>68</v>
       </c>
       <c r="G15">
         <v>15</v>
@@ -20909,7 +20909,7 @@
         <v>2</v>
       </c>
       <c r="E16">
-        <v>201</v>
+        <v>131</v>
       </c>
       <c r="G16">
         <v>14</v>
@@ -20941,7 +20941,7 @@
         <v>4</v>
       </c>
       <c r="E17">
-        <v>233</v>
+        <v>161</v>
       </c>
       <c r="G17">
         <v>14</v>
@@ -20973,7 +20973,7 @@
         <v>8</v>
       </c>
       <c r="E18">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="G18">
         <v>15</v>
@@ -21005,7 +21005,7 @@
         <v>7</v>
       </c>
       <c r="E19">
-        <v>234</v>
+        <v>71</v>
       </c>
       <c r="G19">
         <v>18</v>
@@ -21037,7 +21037,7 @@
         <v>8</v>
       </c>
       <c r="E20">
-        <v>233</v>
+        <v>13</v>
       </c>
       <c r="G20">
         <v>19</v>
@@ -21069,7 +21069,7 @@
         <v>19</v>
       </c>
       <c r="E21">
-        <v>475</v>
+        <v>102</v>
       </c>
       <c r="G21">
         <v>4</v>
@@ -21101,7 +21101,7 @@
         <v>4</v>
       </c>
       <c r="E22">
-        <v>233</v>
+        <v>11</v>
       </c>
       <c r="G22">
         <v>14</v>
@@ -21133,7 +21133,7 @@
         <v>8</v>
       </c>
       <c r="E23">
-        <v>233</v>
+        <v>67</v>
       </c>
       <c r="G23">
         <v>19</v>
@@ -21165,7 +21165,7 @@
         <v>2</v>
       </c>
       <c r="E24">
-        <v>120</v>
+        <v>2</v>
       </c>
       <c r="G24">
         <v>4</v>
@@ -21197,7 +21197,7 @@
         <v>11</v>
       </c>
       <c r="E25">
-        <v>175</v>
+        <v>18</v>
       </c>
       <c r="G25">
         <v>25</v>
@@ -21229,7 +21229,7 @@
         <v>37</v>
       </c>
       <c r="E26">
-        <v>407</v>
+        <v>82</v>
       </c>
       <c r="G26">
         <v>15</v>
@@ -21261,7 +21261,7 @@
         <v>5</v>
       </c>
       <c r="E27">
-        <v>233</v>
+        <v>21</v>
       </c>
       <c r="G27">
         <v>15</v>
@@ -21293,7 +21293,7 @@
         <v>10</v>
       </c>
       <c r="E28">
-        <v>265</v>
+        <v>32</v>
       </c>
       <c r="G28">
         <v>8</v>
@@ -21325,7 +21325,7 @@
         <v>9</v>
       </c>
       <c r="E29">
-        <v>465</v>
+        <v>62</v>
       </c>
       <c r="G29">
         <v>11</v>
@@ -21357,7 +21357,7 @@
         <v>9</v>
       </c>
       <c r="E30">
-        <v>128</v>
+        <v>11</v>
       </c>
       <c r="G30">
         <v>17</v>
@@ -21389,7 +21389,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="G31">
         <v>5</v>
@@ -21421,7 +21421,7 @@
         <v>11</v>
       </c>
       <c r="E32">
-        <v>128</v>
+        <v>84</v>
       </c>
       <c r="G32">
         <v>17</v>
@@ -21453,7 +21453,7 @@
         <v>5</v>
       </c>
       <c r="E33">
-        <v>188</v>
+        <v>10</v>
       </c>
       <c r="G33">
         <v>7</v>
@@ -21485,7 +21485,7 @@
         <v>37</v>
       </c>
       <c r="E34">
-        <v>176</v>
+        <v>41</v>
       </c>
       <c r="G34">
         <v>51</v>
@@ -21517,7 +21517,7 @@
         <v>5</v>
       </c>
       <c r="E35">
-        <v>357</v>
+        <v>7</v>
       </c>
       <c r="G35">
         <v>4</v>
@@ -21549,7 +21549,7 @@
         <v>11</v>
       </c>
       <c r="E36">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="G36">
         <v>19</v>
@@ -21581,7 +21581,7 @@
         <v>16</v>
       </c>
       <c r="E37">
-        <v>465</v>
+        <v>29</v>
       </c>
       <c r="G37">
         <v>5</v>
@@ -21613,7 +21613,7 @@
         <v>12</v>
       </c>
       <c r="E38">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="G38">
         <v>19</v>
@@ -21645,7 +21645,7 @@
         <v>12</v>
       </c>
       <c r="E39">
-        <v>343</v>
+        <v>109</v>
       </c>
       <c r="G39">
         <v>15</v>
@@ -21677,7 +21677,7 @@
         <v>21</v>
       </c>
       <c r="E40">
-        <v>188</v>
+        <v>68</v>
       </c>
       <c r="G40">
         <v>42</v>
@@ -21709,7 +21709,7 @@
         <v>5</v>
       </c>
       <c r="E41">
-        <v>465</v>
+        <v>11</v>
       </c>
       <c r="G41">
         <v>4</v>
@@ -21741,7 +21741,7 @@
         <v>3</v>
       </c>
       <c r="E42">
-        <v>465</v>
+        <v>61</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -21773,7 +21773,7 @@
         <v>9</v>
       </c>
       <c r="E43">
-        <v>128</v>
+        <v>11</v>
       </c>
       <c r="G43">
         <v>17</v>
@@ -21805,7 +21805,7 @@
         <v>8</v>
       </c>
       <c r="E44">
-        <v>197</v>
+        <v>26</v>
       </c>
       <c r="G44">
         <v>19</v>
@@ -21869,7 +21869,7 @@
         <v>35</v>
       </c>
       <c r="E46">
-        <v>201</v>
+        <v>39</v>
       </c>
       <c r="G46">
         <v>53</v>
@@ -21901,7 +21901,7 @@
         <v>14</v>
       </c>
       <c r="E47">
-        <v>357</v>
+        <v>138</v>
       </c>
       <c r="G47">
         <v>4</v>
@@ -21933,7 +21933,7 @@
         <v>9</v>
       </c>
       <c r="E48">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="G48">
         <v>16</v>
@@ -21965,7 +21965,7 @@
         <v>6</v>
       </c>
       <c r="E49">
-        <v>233</v>
+        <v>11</v>
       </c>
       <c r="G49">
         <v>16</v>
@@ -21997,7 +21997,7 @@
         <v>11</v>
       </c>
       <c r="E50">
-        <v>176</v>
+        <v>13</v>
       </c>
       <c r="G50">
         <v>17</v>
@@ -22029,7 +22029,7 @@
         <v>9</v>
       </c>
       <c r="E51">
-        <v>129</v>
+        <v>11</v>
       </c>
       <c r="G51">
         <v>17</v>
@@ -22061,7 +22061,7 @@
         <v>7</v>
       </c>
       <c r="E52">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="G52">
         <v>14</v>
@@ -22093,7 +22093,7 @@
         <v>24</v>
       </c>
       <c r="E53">
-        <v>234</v>
+        <v>142</v>
       </c>
       <c r="G53">
         <v>31</v>
@@ -22125,7 +22125,7 @@
         <v>11</v>
       </c>
       <c r="E54">
-        <v>129</v>
+        <v>36</v>
       </c>
       <c r="G54">
         <v>19</v>
@@ -22157,7 +22157,7 @@
         <v>17</v>
       </c>
       <c r="E55">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="G55">
         <v>27</v>
@@ -22189,7 +22189,7 @@
         <v>10</v>
       </c>
       <c r="E56">
-        <v>175</v>
+        <v>18</v>
       </c>
       <c r="G56">
         <v>25</v>
@@ -22257,16 +22257,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>176</v>
+        <v>18</v>
       </c>
       <c r="G2">
         <v>112</v>
@@ -22289,16 +22289,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D3">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E3">
-        <v>188</v>
+        <v>68</v>
       </c>
       <c r="G3">
         <v>171</v>
@@ -22353,16 +22353,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E5">
-        <v>234</v>
+        <v>122</v>
       </c>
       <c r="G5">
         <v>20</v>
@@ -22385,16 +22385,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>157</v>
+        <v>95</v>
       </c>
       <c r="C6">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="D6">
-        <v>141</v>
+        <v>86</v>
       </c>
       <c r="E6">
-        <v>233</v>
+        <v>162</v>
       </c>
       <c r="G6">
         <v>390</v>
@@ -22449,16 +22449,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>242</v>
+        <v>28</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>343</v>
+        <v>57</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -22481,16 +22481,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="E9">
-        <v>233</v>
+        <v>21</v>
       </c>
       <c r="G9">
         <v>171</v>
@@ -22513,16 +22513,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>128</v>
+        <v>10</v>
       </c>
       <c r="G10">
         <v>21</v>
@@ -22577,16 +22577,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="C12">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="D12">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="E12">
-        <v>343</v>
+        <v>90</v>
       </c>
       <c r="G12">
         <v>129</v>
@@ -22609,16 +22609,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E13">
-        <v>176</v>
+        <v>14</v>
       </c>
       <c r="G13">
         <v>17</v>
@@ -22641,16 +22641,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>175</v>
+        <v>18</v>
       </c>
       <c r="G14">
         <v>171</v>
@@ -22673,16 +22673,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="C15">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="D15">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="E15">
-        <v>233</v>
+        <v>68</v>
       </c>
       <c r="G15">
         <v>179</v>
@@ -22714,7 +22714,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>201</v>
+        <v>131</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -22746,7 +22746,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>233</v>
+        <v>161</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -22769,16 +22769,16 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>94</v>
+        <v>3</v>
       </c>
       <c r="C18">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="D18">
-        <v>92</v>
+        <v>3</v>
       </c>
       <c r="E18">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="G18">
         <v>640</v>
@@ -22801,16 +22801,16 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C19">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D19">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E19">
-        <v>234</v>
+        <v>71</v>
       </c>
       <c r="G19">
         <v>19</v>
@@ -22833,16 +22833,16 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>72</v>
+        <v>3</v>
       </c>
       <c r="C20">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="D20">
-        <v>67</v>
+        <v>3</v>
       </c>
       <c r="E20">
-        <v>233</v>
+        <v>13</v>
       </c>
       <c r="G20">
         <v>233</v>
@@ -22865,16 +22865,16 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="C21">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="D21">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="E21">
-        <v>475</v>
+        <v>102</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -22897,16 +22897,16 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>208</v>
+        <v>6</v>
       </c>
       <c r="C22">
-        <v>107</v>
+        <v>6</v>
       </c>
       <c r="D22">
-        <v>202</v>
+        <v>6</v>
       </c>
       <c r="E22">
-        <v>233</v>
+        <v>11</v>
       </c>
       <c r="G22">
         <v>689</v>
@@ -22929,16 +22929,16 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C23">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E23">
-        <v>233</v>
+        <v>67</v>
       </c>
       <c r="G23">
         <v>20</v>
@@ -22961,7 +22961,7 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -22970,7 +22970,7 @@
         <v>1</v>
       </c>
       <c r="E24">
-        <v>120</v>
+        <v>2</v>
       </c>
       <c r="G24">
         <v>19</v>
@@ -22993,16 +22993,16 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>92</v>
+        <v>4</v>
       </c>
       <c r="C25">
-        <v>63</v>
+        <v>4</v>
       </c>
       <c r="D25">
-        <v>84</v>
+        <v>4</v>
       </c>
       <c r="E25">
-        <v>175</v>
+        <v>18</v>
       </c>
       <c r="G25">
         <v>352</v>
@@ -23025,16 +23025,16 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C26">
-        <v>248</v>
+        <v>32</v>
       </c>
       <c r="D26">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E26">
-        <v>407</v>
+        <v>82</v>
       </c>
       <c r="G26">
         <v>249</v>
@@ -23057,16 +23057,16 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="D27">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="E27">
-        <v>233</v>
+        <v>21</v>
       </c>
       <c r="G27">
         <v>111</v>
@@ -23089,16 +23089,16 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C28">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D28">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E28">
-        <v>265</v>
+        <v>32</v>
       </c>
       <c r="G28">
         <v>168</v>
@@ -23121,16 +23121,16 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C29">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D29">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E29">
-        <v>465</v>
+        <v>62</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -23153,16 +23153,16 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="C30">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="D30">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="E30">
-        <v>128</v>
+        <v>11</v>
       </c>
       <c r="G30">
         <v>351</v>
@@ -23185,16 +23185,16 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="C31">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="D31">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="E31">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="G31">
         <v>503</v>
@@ -23226,7 +23226,7 @@
         <v>5</v>
       </c>
       <c r="E32">
-        <v>128</v>
+        <v>84</v>
       </c>
       <c r="G32">
         <v>6</v>
@@ -23249,16 +23249,16 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="C33">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="D33">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="E33">
-        <v>188</v>
+        <v>10</v>
       </c>
       <c r="G33">
         <v>501</v>
@@ -23281,16 +23281,16 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="C34">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="D34">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="E34">
-        <v>176</v>
+        <v>41</v>
       </c>
       <c r="G34">
         <v>241</v>
@@ -23313,16 +23313,16 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C35">
-        <v>257</v>
+        <v>1</v>
       </c>
       <c r="D35">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="E35">
-        <v>357</v>
+        <v>7</v>
       </c>
       <c r="G35">
         <v>500</v>
@@ -23354,7 +23354,7 @@
         <v>3</v>
       </c>
       <c r="E36">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="G36">
         <v>18</v>
@@ -23377,16 +23377,16 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>126</v>
+        <v>3</v>
       </c>
       <c r="C37">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="D37">
-        <v>126</v>
+        <v>3</v>
       </c>
       <c r="E37">
-        <v>465</v>
+        <v>29</v>
       </c>
       <c r="G37">
         <v>564</v>
@@ -23418,7 +23418,7 @@
         <v>1</v>
       </c>
       <c r="E38">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -23441,16 +23441,16 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C39">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D39">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E39">
-        <v>343</v>
+        <v>109</v>
       </c>
       <c r="G39">
         <v>43</v>
@@ -23473,16 +23473,16 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="C40">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D40">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="E40">
-        <v>188</v>
+        <v>68</v>
       </c>
       <c r="G40">
         <v>352</v>
@@ -23514,7 +23514,7 @@
         <v>1</v>
       </c>
       <c r="E41">
-        <v>465</v>
+        <v>11</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -23537,16 +23537,16 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>236</v>
+        <v>10</v>
       </c>
       <c r="C42">
-        <v>206</v>
+        <v>8</v>
       </c>
       <c r="D42">
-        <v>236</v>
+        <v>10</v>
       </c>
       <c r="E42">
-        <v>465</v>
+        <v>61</v>
       </c>
       <c r="G42">
         <v>730</v>
@@ -23569,7 +23569,7 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C43">
         <v>3</v>
@@ -23578,7 +23578,7 @@
         <v>3</v>
       </c>
       <c r="E43">
-        <v>128</v>
+        <v>11</v>
       </c>
       <c r="G43">
         <v>23</v>
@@ -23601,16 +23601,16 @@
         <v>52</v>
       </c>
       <c r="B44">
-        <v>75</v>
+        <v>2</v>
       </c>
       <c r="C44">
-        <v>120</v>
+        <v>6</v>
       </c>
       <c r="D44">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="E44">
-        <v>197</v>
+        <v>26</v>
       </c>
       <c r="G44">
         <v>702</v>
@@ -23665,16 +23665,16 @@
         <v>54</v>
       </c>
       <c r="B46">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="C46">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="D46">
-        <v>73</v>
+        <v>6</v>
       </c>
       <c r="E46">
-        <v>201</v>
+        <v>39</v>
       </c>
       <c r="G46">
         <v>504</v>
@@ -23697,16 +23697,16 @@
         <v>55</v>
       </c>
       <c r="B47">
-        <v>173</v>
+        <v>39</v>
       </c>
       <c r="C47">
-        <v>142</v>
+        <v>31</v>
       </c>
       <c r="D47">
-        <v>173</v>
+        <v>39</v>
       </c>
       <c r="E47">
-        <v>357</v>
+        <v>138</v>
       </c>
       <c r="G47">
         <v>526</v>
@@ -23738,7 +23738,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -23761,16 +23761,16 @@
         <v>57</v>
       </c>
       <c r="B49">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="C49">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="D49">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="E49">
-        <v>233</v>
+        <v>11</v>
       </c>
       <c r="G49">
         <v>112</v>
@@ -23793,16 +23793,16 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50">
         <v>13</v>
-      </c>
-      <c r="D50">
-        <v>13</v>
-      </c>
-      <c r="E50">
-        <v>176</v>
       </c>
       <c r="G50">
         <v>115</v>
@@ -23825,7 +23825,7 @@
         <v>59</v>
       </c>
       <c r="B51">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C51">
         <v>3</v>
@@ -23834,7 +23834,7 @@
         <v>3</v>
       </c>
       <c r="E51">
-        <v>129</v>
+        <v>11</v>
       </c>
       <c r="G51">
         <v>20</v>
@@ -23866,7 +23866,7 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -23892,13 +23892,13 @@
         <v>3</v>
       </c>
       <c r="C53">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="D53">
         <v>3</v>
       </c>
       <c r="E53">
-        <v>234</v>
+        <v>142</v>
       </c>
       <c r="G53">
         <v>287</v>
@@ -23921,16 +23921,16 @@
         <v>62</v>
       </c>
       <c r="B54">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="C54">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="D54">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="E54">
-        <v>129</v>
+        <v>36</v>
       </c>
       <c r="G54">
         <v>239</v>
@@ -23953,16 +23953,16 @@
         <v>63</v>
       </c>
       <c r="B55">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="C55">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D55">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="E55">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="G55">
         <v>173</v>
@@ -23985,16 +23985,16 @@
         <v>64</v>
       </c>
       <c r="B56">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="C56">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="D56">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="E56">
-        <v>175</v>
+        <v>18</v>
       </c>
       <c r="G56">
         <v>231</v>
@@ -24062,16 +24062,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>176</v>
+        <v>18</v>
       </c>
       <c r="G2">
         <v>112</v>
@@ -24094,16 +24094,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D3">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E3">
-        <v>188</v>
+        <v>68</v>
       </c>
       <c r="G3">
         <v>171</v>
@@ -24158,16 +24158,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E5">
-        <v>234</v>
+        <v>122</v>
       </c>
       <c r="G5">
         <v>20</v>
@@ -24190,16 +24190,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>157</v>
+        <v>95</v>
       </c>
       <c r="C6">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="D6">
-        <v>141</v>
+        <v>86</v>
       </c>
       <c r="E6">
-        <v>233</v>
+        <v>162</v>
       </c>
       <c r="G6">
         <v>390</v>
@@ -24254,16 +24254,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>240</v>
+        <v>27</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>343</v>
+        <v>57</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -24286,16 +24286,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="E9">
-        <v>233</v>
+        <v>21</v>
       </c>
       <c r="G9">
         <v>171</v>
@@ -24318,16 +24318,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>128</v>
+        <v>10</v>
       </c>
       <c r="G10">
         <v>21</v>
@@ -24382,16 +24382,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="C12">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="D12">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="E12">
-        <v>343</v>
+        <v>90</v>
       </c>
       <c r="G12">
         <v>129</v>
@@ -24414,16 +24414,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E13">
-        <v>176</v>
+        <v>14</v>
       </c>
       <c r="G13">
         <v>17</v>
@@ -24446,16 +24446,16 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>175</v>
+        <v>18</v>
       </c>
       <c r="G14">
         <v>171</v>
@@ -24478,16 +24478,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="C15">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="D15">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="E15">
-        <v>233</v>
+        <v>68</v>
       </c>
       <c r="G15">
         <v>179</v>
@@ -24519,7 +24519,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>201</v>
+        <v>131</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -24551,7 +24551,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>233</v>
+        <v>161</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -24574,16 +24574,16 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>94</v>
+        <v>3</v>
       </c>
       <c r="C18">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="D18">
-        <v>92</v>
+        <v>3</v>
       </c>
       <c r="E18">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="G18">
         <v>640</v>
@@ -24606,16 +24606,16 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C19">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D19">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E19">
-        <v>234</v>
+        <v>71</v>
       </c>
       <c r="G19">
         <v>19</v>
@@ -24638,16 +24638,16 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>72</v>
+        <v>3</v>
       </c>
       <c r="C20">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="D20">
-        <v>67</v>
+        <v>3</v>
       </c>
       <c r="E20">
-        <v>233</v>
+        <v>13</v>
       </c>
       <c r="G20">
         <v>233</v>
@@ -24670,16 +24670,16 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="C21">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="D21">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="E21">
-        <v>475</v>
+        <v>102</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -24702,16 +24702,16 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>208</v>
+        <v>6</v>
       </c>
       <c r="C22">
-        <v>107</v>
+        <v>6</v>
       </c>
       <c r="D22">
-        <v>202</v>
+        <v>6</v>
       </c>
       <c r="E22">
-        <v>233</v>
+        <v>11</v>
       </c>
       <c r="G22">
         <v>689</v>
@@ -24734,16 +24734,16 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C23">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E23">
-        <v>233</v>
+        <v>67</v>
       </c>
       <c r="G23">
         <v>20</v>
@@ -24766,7 +24766,7 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -24775,7 +24775,7 @@
         <v>1</v>
       </c>
       <c r="E24">
-        <v>120</v>
+        <v>2</v>
       </c>
       <c r="G24">
         <v>19</v>
@@ -24798,16 +24798,16 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>92</v>
+        <v>4</v>
       </c>
       <c r="C25">
-        <v>63</v>
+        <v>4</v>
       </c>
       <c r="D25">
-        <v>84</v>
+        <v>4</v>
       </c>
       <c r="E25">
-        <v>175</v>
+        <v>18</v>
       </c>
       <c r="G25">
         <v>352</v>
@@ -24830,16 +24830,16 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C26">
-        <v>217</v>
+        <v>22</v>
       </c>
       <c r="D26">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E26">
-        <v>407</v>
+        <v>82</v>
       </c>
       <c r="G26">
         <v>249</v>
@@ -24862,16 +24862,16 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="D27">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="E27">
-        <v>233</v>
+        <v>21</v>
       </c>
       <c r="G27">
         <v>111</v>
@@ -24894,16 +24894,16 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C28">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D28">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E28">
-        <v>265</v>
+        <v>32</v>
       </c>
       <c r="G28">
         <v>168</v>
@@ -24926,16 +24926,16 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C29">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D29">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E29">
-        <v>465</v>
+        <v>62</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -24958,16 +24958,16 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="C30">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="D30">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="E30">
-        <v>128</v>
+        <v>11</v>
       </c>
       <c r="G30">
         <v>351</v>
@@ -24990,16 +24990,16 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="C31">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="D31">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="E31">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="G31">
         <v>503</v>
@@ -25031,7 +25031,7 @@
         <v>5</v>
       </c>
       <c r="E32">
-        <v>128</v>
+        <v>84</v>
       </c>
       <c r="G32">
         <v>6</v>
@@ -25054,16 +25054,16 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="C33">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="D33">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="E33">
-        <v>188</v>
+        <v>10</v>
       </c>
       <c r="G33">
         <v>501</v>
@@ -25086,16 +25086,16 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="C34">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="D34">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="E34">
-        <v>176</v>
+        <v>41</v>
       </c>
       <c r="G34">
         <v>241</v>
@@ -25118,16 +25118,16 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C35">
-        <v>251</v>
+        <v>1</v>
       </c>
       <c r="D35">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="E35">
-        <v>357</v>
+        <v>7</v>
       </c>
       <c r="G35">
         <v>500</v>
@@ -25159,7 +25159,7 @@
         <v>3</v>
       </c>
       <c r="E36">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="G36">
         <v>18</v>
@@ -25182,16 +25182,16 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>126</v>
+        <v>3</v>
       </c>
       <c r="C37">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="D37">
-        <v>126</v>
+        <v>3</v>
       </c>
       <c r="E37">
-        <v>465</v>
+        <v>29</v>
       </c>
       <c r="G37">
         <v>564</v>
@@ -25223,7 +25223,7 @@
         <v>1</v>
       </c>
       <c r="E38">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -25246,16 +25246,16 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C39">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D39">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E39">
-        <v>343</v>
+        <v>109</v>
       </c>
       <c r="G39">
         <v>43</v>
@@ -25278,16 +25278,16 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="C40">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D40">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="E40">
-        <v>188</v>
+        <v>68</v>
       </c>
       <c r="G40">
         <v>352</v>
@@ -25319,7 +25319,7 @@
         <v>1</v>
       </c>
       <c r="E41">
-        <v>465</v>
+        <v>11</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -25342,16 +25342,16 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>235</v>
+        <v>10</v>
       </c>
       <c r="C42">
-        <v>205</v>
+        <v>8</v>
       </c>
       <c r="D42">
-        <v>235</v>
+        <v>10</v>
       </c>
       <c r="E42">
-        <v>465</v>
+        <v>61</v>
       </c>
       <c r="G42">
         <v>730</v>
@@ -25374,7 +25374,7 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C43">
         <v>3</v>
@@ -25383,7 +25383,7 @@
         <v>3</v>
       </c>
       <c r="E43">
-        <v>128</v>
+        <v>11</v>
       </c>
       <c r="G43">
         <v>23</v>
@@ -25406,16 +25406,16 @@
         <v>52</v>
       </c>
       <c r="B44">
-        <v>75</v>
+        <v>2</v>
       </c>
       <c r="C44">
-        <v>119</v>
+        <v>6</v>
       </c>
       <c r="D44">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="E44">
-        <v>197</v>
+        <v>26</v>
       </c>
       <c r="G44">
         <v>702</v>
@@ -25470,16 +25470,16 @@
         <v>54</v>
       </c>
       <c r="B46">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="C46">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="D46">
-        <v>73</v>
+        <v>6</v>
       </c>
       <c r="E46">
-        <v>201</v>
+        <v>39</v>
       </c>
       <c r="G46">
         <v>504</v>
@@ -25502,16 +25502,16 @@
         <v>55</v>
       </c>
       <c r="B47">
-        <v>173</v>
+        <v>39</v>
       </c>
       <c r="C47">
-        <v>142</v>
+        <v>31</v>
       </c>
       <c r="D47">
-        <v>173</v>
+        <v>39</v>
       </c>
       <c r="E47">
-        <v>357</v>
+        <v>138</v>
       </c>
       <c r="G47">
         <v>526</v>
@@ -25543,7 +25543,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -25566,16 +25566,16 @@
         <v>57</v>
       </c>
       <c r="B49">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="C49">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="D49">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="E49">
-        <v>233</v>
+        <v>11</v>
       </c>
       <c r="G49">
         <v>112</v>
@@ -25598,16 +25598,16 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50">
         <v>13</v>
-      </c>
-      <c r="D50">
-        <v>13</v>
-      </c>
-      <c r="E50">
-        <v>176</v>
       </c>
       <c r="G50">
         <v>115</v>
@@ -25630,7 +25630,7 @@
         <v>59</v>
       </c>
       <c r="B51">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C51">
         <v>3</v>
@@ -25639,7 +25639,7 @@
         <v>3</v>
       </c>
       <c r="E51">
-        <v>129</v>
+        <v>11</v>
       </c>
       <c r="G51">
         <v>20</v>
@@ -25671,7 +25671,7 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -25697,13 +25697,13 @@
         <v>3</v>
       </c>
       <c r="C53">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="D53">
         <v>3</v>
       </c>
       <c r="E53">
-        <v>234</v>
+        <v>142</v>
       </c>
       <c r="G53">
         <v>287</v>
@@ -25726,16 +25726,16 @@
         <v>62</v>
       </c>
       <c r="B54">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="C54">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="D54">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="E54">
-        <v>129</v>
+        <v>36</v>
       </c>
       <c r="G54">
         <v>239</v>
@@ -25758,16 +25758,16 @@
         <v>63</v>
       </c>
       <c r="B55">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="C55">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D55">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="E55">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="G55">
         <v>173</v>
@@ -25790,16 +25790,16 @@
         <v>64</v>
       </c>
       <c r="B56">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="C56">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="D56">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="E56">
-        <v>175</v>
+        <v>18</v>
       </c>
       <c r="G56">
         <v>231</v>
@@ -25876,7 +25876,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>176</v>
+        <v>18</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -25908,7 +25908,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>188</v>
+        <v>68</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -25972,7 +25972,7 @@
         <v>5</v>
       </c>
       <c r="E5">
-        <v>234</v>
+        <v>122</v>
       </c>
       <c r="G5">
         <v>6</v>
@@ -26004,7 +26004,7 @@
         <v>86</v>
       </c>
       <c r="E6">
-        <v>233</v>
+        <v>162</v>
       </c>
       <c r="G6">
         <v>76</v>
@@ -26068,7 +26068,7 @@
         <v>5</v>
       </c>
       <c r="E8">
-        <v>343</v>
+        <v>57</v>
       </c>
       <c r="G8">
         <v>11</v>
@@ -26100,7 +26100,7 @@
         <v>2</v>
       </c>
       <c r="E9">
-        <v>233</v>
+        <v>21</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -26132,7 +26132,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>128</v>
+        <v>10</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -26196,7 +26196,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>343</v>
+        <v>90</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -26228,7 +26228,7 @@
         <v>2</v>
       </c>
       <c r="E13">
-        <v>176</v>
+        <v>14</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -26260,7 +26260,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>175</v>
+        <v>18</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -26292,7 +26292,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>233</v>
+        <v>68</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -26324,7 +26324,7 @@
         <v>2</v>
       </c>
       <c r="E16">
-        <v>201</v>
+        <v>131</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -26356,7 +26356,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>233</v>
+        <v>161</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -26388,7 +26388,7 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -26420,7 +26420,7 @@
         <v>3</v>
       </c>
       <c r="E19">
-        <v>234</v>
+        <v>71</v>
       </c>
       <c r="G19">
         <v>4</v>
@@ -26452,7 +26452,7 @@
         <v>3</v>
       </c>
       <c r="E20">
-        <v>233</v>
+        <v>13</v>
       </c>
       <c r="G20">
         <v>4</v>
@@ -26484,7 +26484,7 @@
         <v>2</v>
       </c>
       <c r="E21">
-        <v>475</v>
+        <v>102</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -26516,7 +26516,7 @@
         <v>4</v>
       </c>
       <c r="E22">
-        <v>233</v>
+        <v>11</v>
       </c>
       <c r="G22">
         <v>6</v>
@@ -26548,7 +26548,7 @@
         <v>2</v>
       </c>
       <c r="E23">
-        <v>233</v>
+        <v>67</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -26580,7 +26580,7 @@
         <v>1</v>
       </c>
       <c r="E24">
-        <v>120</v>
+        <v>2</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -26612,7 +26612,7 @@
         <v>4</v>
       </c>
       <c r="E25">
-        <v>175</v>
+        <v>18</v>
       </c>
       <c r="G25">
         <v>6</v>
@@ -26644,7 +26644,7 @@
         <v>4</v>
       </c>
       <c r="E26">
-        <v>407</v>
+        <v>82</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -26676,7 +26676,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>233</v>
+        <v>21</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -26708,7 +26708,7 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <v>265</v>
+        <v>32</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -26740,7 +26740,7 @@
         <v>5</v>
       </c>
       <c r="E29">
-        <v>465</v>
+        <v>62</v>
       </c>
       <c r="G29">
         <v>5</v>
@@ -26772,7 +26772,7 @@
         <v>1</v>
       </c>
       <c r="E30">
-        <v>128</v>
+        <v>11</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -26804,7 +26804,7 @@
         <v>2</v>
       </c>
       <c r="E31">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -26836,7 +26836,7 @@
         <v>5</v>
       </c>
       <c r="E32">
-        <v>128</v>
+        <v>84</v>
       </c>
       <c r="G32">
         <v>6</v>
@@ -26868,7 +26868,7 @@
         <v>1</v>
       </c>
       <c r="E33">
-        <v>188</v>
+        <v>10</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -26900,7 +26900,7 @@
         <v>12</v>
       </c>
       <c r="E34">
-        <v>176</v>
+        <v>41</v>
       </c>
       <c r="G34">
         <v>14</v>
@@ -26932,7 +26932,7 @@
         <v>1</v>
       </c>
       <c r="E35">
-        <v>357</v>
+        <v>7</v>
       </c>
       <c r="G35">
         <v>2</v>
@@ -26964,7 +26964,7 @@
         <v>3</v>
       </c>
       <c r="E36">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="G36">
         <v>3</v>
@@ -26996,7 +26996,7 @@
         <v>3</v>
       </c>
       <c r="E37">
-        <v>465</v>
+        <v>29</v>
       </c>
       <c r="G37">
         <v>3</v>
@@ -27028,7 +27028,7 @@
         <v>1</v>
       </c>
       <c r="E38">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -27060,7 +27060,7 @@
         <v>2</v>
       </c>
       <c r="E39">
-        <v>343</v>
+        <v>109</v>
       </c>
       <c r="G39">
         <v>2</v>
@@ -27092,7 +27092,7 @@
         <v>9</v>
       </c>
       <c r="E40">
-        <v>188</v>
+        <v>68</v>
       </c>
       <c r="G40">
         <v>6</v>
@@ -27124,7 +27124,7 @@
         <v>1</v>
       </c>
       <c r="E41">
-        <v>465</v>
+        <v>11</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -27156,7 +27156,7 @@
         <v>1</v>
       </c>
       <c r="E42">
-        <v>465</v>
+        <v>61</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -27188,7 +27188,7 @@
         <v>3</v>
       </c>
       <c r="E43">
-        <v>128</v>
+        <v>11</v>
       </c>
       <c r="G43">
         <v>5</v>
@@ -27220,7 +27220,7 @@
         <v>2</v>
       </c>
       <c r="E44">
-        <v>197</v>
+        <v>26</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -27284,7 +27284,7 @@
         <v>6</v>
       </c>
       <c r="E46">
-        <v>201</v>
+        <v>39</v>
       </c>
       <c r="G46">
         <v>7</v>
@@ -27316,7 +27316,7 @@
         <v>3</v>
       </c>
       <c r="E47">
-        <v>357</v>
+        <v>138</v>
       </c>
       <c r="G47">
         <v>4</v>
@@ -27348,7 +27348,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -27380,7 +27380,7 @@
         <v>2</v>
       </c>
       <c r="E49">
-        <v>233</v>
+        <v>11</v>
       </c>
       <c r="G49">
         <v>2</v>
@@ -27412,7 +27412,7 @@
         <v>2</v>
       </c>
       <c r="E50">
-        <v>176</v>
+        <v>13</v>
       </c>
       <c r="G50">
         <v>3</v>
@@ -27444,7 +27444,7 @@
         <v>3</v>
       </c>
       <c r="E51">
-        <v>129</v>
+        <v>11</v>
       </c>
       <c r="G51">
         <v>5</v>
@@ -27476,7 +27476,7 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -27508,7 +27508,7 @@
         <v>3</v>
       </c>
       <c r="E53">
-        <v>234</v>
+        <v>142</v>
       </c>
       <c r="G53">
         <v>3</v>
@@ -27540,7 +27540,7 @@
         <v>1</v>
       </c>
       <c r="E54">
-        <v>129</v>
+        <v>36</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -27572,7 +27572,7 @@
         <v>4</v>
       </c>
       <c r="E55">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="G55">
         <v>5</v>
@@ -27604,7 +27604,7 @@
         <v>1</v>
       </c>
       <c r="E56">
-        <v>175</v>
+        <v>18</v>
       </c>
       <c r="G56">
         <v>1</v>

--- a/experiment_results/worst_case/GPL/1wise/0.5_worst_case.xlsx
+++ b/experiment_results/worst_case/GPL/1wise/0.5_worst_case.xlsx
@@ -22,13 +22,15 @@
     <sheet name="rogot1" sheetId="13" r:id="rId13"/>
     <sheet name="geometric_mean" sheetId="14" r:id="rId14"/>
     <sheet name="m2" sheetId="15" r:id="rId15"/>
+    <sheet name="wong1" sheetId="16" r:id="rId16"/>
+    <sheet name="sokal" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="65">
   <si>
     <t>MUTATED_PROJECT</t>
   </si>
@@ -13187,6 +13189,3616 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>18</v>
+      </c>
+      <c r="G2">
+        <v>14</v>
+      </c>
+      <c r="H2">
+        <v>958</v>
+      </c>
+      <c r="J2">
+        <v>16</v>
+      </c>
+      <c r="K2">
+        <v>222</v>
+      </c>
+      <c r="L2">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>68</v>
+      </c>
+      <c r="G3">
+        <v>7</v>
+      </c>
+      <c r="H3">
+        <v>958</v>
+      </c>
+      <c r="J3">
+        <v>9</v>
+      </c>
+      <c r="K3">
+        <v>78</v>
+      </c>
+      <c r="L3">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>-1</v>
+      </c>
+      <c r="C4">
+        <v>-1</v>
+      </c>
+      <c r="D4">
+        <v>-1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>958</v>
+      </c>
+      <c r="H4">
+        <v>958</v>
+      </c>
+      <c r="J4">
+        <v>51</v>
+      </c>
+      <c r="K4">
+        <v>958</v>
+      </c>
+      <c r="L4">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>122</v>
+      </c>
+      <c r="C5">
+        <v>64</v>
+      </c>
+      <c r="D5">
+        <v>64</v>
+      </c>
+      <c r="E5">
+        <v>122</v>
+      </c>
+      <c r="G5">
+        <v>152</v>
+      </c>
+      <c r="H5">
+        <v>958</v>
+      </c>
+      <c r="J5">
+        <v>16</v>
+      </c>
+      <c r="K5">
+        <v>289</v>
+      </c>
+      <c r="L5">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>162</v>
+      </c>
+      <c r="C6">
+        <v>79</v>
+      </c>
+      <c r="D6">
+        <v>79</v>
+      </c>
+      <c r="E6">
+        <v>162</v>
+      </c>
+      <c r="G6">
+        <v>202</v>
+      </c>
+      <c r="H6">
+        <v>958</v>
+      </c>
+      <c r="J6">
+        <v>16</v>
+      </c>
+      <c r="K6">
+        <v>289</v>
+      </c>
+      <c r="L6">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>-1</v>
+      </c>
+      <c r="C7">
+        <v>-1</v>
+      </c>
+      <c r="D7">
+        <v>-1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>958</v>
+      </c>
+      <c r="H7">
+        <v>958</v>
+      </c>
+      <c r="J7">
+        <v>51</v>
+      </c>
+      <c r="K7">
+        <v>958</v>
+      </c>
+      <c r="L7">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>57</v>
+      </c>
+      <c r="G8">
+        <v>16</v>
+      </c>
+      <c r="H8">
+        <v>958</v>
+      </c>
+      <c r="J8">
+        <v>8</v>
+      </c>
+      <c r="K8">
+        <v>131</v>
+      </c>
+      <c r="L8">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>21</v>
+      </c>
+      <c r="G9">
+        <v>15</v>
+      </c>
+      <c r="H9">
+        <v>958</v>
+      </c>
+      <c r="J9">
+        <v>16</v>
+      </c>
+      <c r="K9">
+        <v>289</v>
+      </c>
+      <c r="L9">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>13</v>
+      </c>
+      <c r="H10">
+        <v>958</v>
+      </c>
+      <c r="J10">
+        <v>13</v>
+      </c>
+      <c r="K10">
+        <v>167</v>
+      </c>
+      <c r="L10">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>-1</v>
+      </c>
+      <c r="C11">
+        <v>-1</v>
+      </c>
+      <c r="D11">
+        <v>-1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>958</v>
+      </c>
+      <c r="H11">
+        <v>958</v>
+      </c>
+      <c r="J11">
+        <v>51</v>
+      </c>
+      <c r="K11">
+        <v>958</v>
+      </c>
+      <c r="L11">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <v>90</v>
+      </c>
+      <c r="G12">
+        <v>10</v>
+      </c>
+      <c r="H12">
+        <v>958</v>
+      </c>
+      <c r="J12">
+        <v>8</v>
+      </c>
+      <c r="K12">
+        <v>131</v>
+      </c>
+      <c r="L12">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>12</v>
+      </c>
+      <c r="E13">
+        <v>14</v>
+      </c>
+      <c r="G13">
+        <v>18</v>
+      </c>
+      <c r="H13">
+        <v>958</v>
+      </c>
+      <c r="J13">
+        <v>16</v>
+      </c>
+      <c r="K13">
+        <v>222</v>
+      </c>
+      <c r="L13">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <v>6</v>
+      </c>
+      <c r="E14">
+        <v>18</v>
+      </c>
+      <c r="G14">
+        <v>12</v>
+      </c>
+      <c r="H14">
+        <v>958</v>
+      </c>
+      <c r="J14">
+        <v>16</v>
+      </c>
+      <c r="K14">
+        <v>222</v>
+      </c>
+      <c r="L14">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>68</v>
+      </c>
+      <c r="G15">
+        <v>15</v>
+      </c>
+      <c r="H15">
+        <v>958</v>
+      </c>
+      <c r="J15">
+        <v>16</v>
+      </c>
+      <c r="K15">
+        <v>289</v>
+      </c>
+      <c r="L15">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>9</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>131</v>
+      </c>
+      <c r="G16">
+        <v>14</v>
+      </c>
+      <c r="H16">
+        <v>958</v>
+      </c>
+      <c r="J16">
+        <v>13</v>
+      </c>
+      <c r="K16">
+        <v>249</v>
+      </c>
+      <c r="L16">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>9</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17">
+        <v>161</v>
+      </c>
+      <c r="G17">
+        <v>14</v>
+      </c>
+      <c r="H17">
+        <v>958</v>
+      </c>
+      <c r="J17">
+        <v>16</v>
+      </c>
+      <c r="K17">
+        <v>289</v>
+      </c>
+      <c r="L17">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>8</v>
+      </c>
+      <c r="D18">
+        <v>8</v>
+      </c>
+      <c r="E18">
+        <v>12</v>
+      </c>
+      <c r="G18">
+        <v>15</v>
+      </c>
+      <c r="H18">
+        <v>958</v>
+      </c>
+      <c r="J18">
+        <v>15</v>
+      </c>
+      <c r="K18">
+        <v>180</v>
+      </c>
+      <c r="L18">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>15</v>
+      </c>
+      <c r="C19">
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <v>7</v>
+      </c>
+      <c r="E19">
+        <v>71</v>
+      </c>
+      <c r="G19">
+        <v>18</v>
+      </c>
+      <c r="H19">
+        <v>958</v>
+      </c>
+      <c r="J19">
+        <v>16</v>
+      </c>
+      <c r="K19">
+        <v>289</v>
+      </c>
+      <c r="L19">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>13</v>
+      </c>
+      <c r="C20">
+        <v>8</v>
+      </c>
+      <c r="D20">
+        <v>8</v>
+      </c>
+      <c r="E20">
+        <v>13</v>
+      </c>
+      <c r="G20">
+        <v>19</v>
+      </c>
+      <c r="H20">
+        <v>958</v>
+      </c>
+      <c r="J20">
+        <v>16</v>
+      </c>
+      <c r="K20">
+        <v>289</v>
+      </c>
+      <c r="L20">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>33</v>
+      </c>
+      <c r="C21">
+        <v>19</v>
+      </c>
+      <c r="D21">
+        <v>19</v>
+      </c>
+      <c r="E21">
+        <v>102</v>
+      </c>
+      <c r="G21">
+        <v>4</v>
+      </c>
+      <c r="H21">
+        <v>958</v>
+      </c>
+      <c r="J21">
+        <v>6</v>
+      </c>
+      <c r="K21">
+        <v>61</v>
+      </c>
+      <c r="L21">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>9</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+      <c r="E22">
+        <v>11</v>
+      </c>
+      <c r="G22">
+        <v>14</v>
+      </c>
+      <c r="H22">
+        <v>958</v>
+      </c>
+      <c r="J22">
+        <v>16</v>
+      </c>
+      <c r="K22">
+        <v>289</v>
+      </c>
+      <c r="L22">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>13</v>
+      </c>
+      <c r="C23">
+        <v>8</v>
+      </c>
+      <c r="D23">
+        <v>8</v>
+      </c>
+      <c r="E23">
+        <v>67</v>
+      </c>
+      <c r="G23">
+        <v>19</v>
+      </c>
+      <c r="H23">
+        <v>958</v>
+      </c>
+      <c r="J23">
+        <v>16</v>
+      </c>
+      <c r="K23">
+        <v>289</v>
+      </c>
+      <c r="L23">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="G24">
+        <v>4</v>
+      </c>
+      <c r="H24">
+        <v>961</v>
+      </c>
+      <c r="J24">
+        <v>12</v>
+      </c>
+      <c r="K24">
+        <v>168</v>
+      </c>
+      <c r="L24">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>18</v>
+      </c>
+      <c r="C25">
+        <v>11</v>
+      </c>
+      <c r="D25">
+        <v>11</v>
+      </c>
+      <c r="E25">
+        <v>18</v>
+      </c>
+      <c r="G25">
+        <v>25</v>
+      </c>
+      <c r="H25">
+        <v>958</v>
+      </c>
+      <c r="J25">
+        <v>16</v>
+      </c>
+      <c r="K25">
+        <v>222</v>
+      </c>
+      <c r="L25">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>60</v>
+      </c>
+      <c r="C26">
+        <v>43</v>
+      </c>
+      <c r="D26">
+        <v>60</v>
+      </c>
+      <c r="E26">
+        <v>82</v>
+      </c>
+      <c r="G26">
+        <v>15</v>
+      </c>
+      <c r="H26">
+        <v>958</v>
+      </c>
+      <c r="J26">
+        <v>6</v>
+      </c>
+      <c r="K26">
+        <v>61</v>
+      </c>
+      <c r="L26">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>10</v>
+      </c>
+      <c r="C27">
+        <v>5</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+      <c r="E27">
+        <v>21</v>
+      </c>
+      <c r="G27">
+        <v>15</v>
+      </c>
+      <c r="H27">
+        <v>958</v>
+      </c>
+      <c r="J27">
+        <v>16</v>
+      </c>
+      <c r="K27">
+        <v>289</v>
+      </c>
+      <c r="L27">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>18</v>
+      </c>
+      <c r="C28">
+        <v>16</v>
+      </c>
+      <c r="D28">
+        <v>16</v>
+      </c>
+      <c r="E28">
+        <v>32</v>
+      </c>
+      <c r="G28">
+        <v>8</v>
+      </c>
+      <c r="H28">
+        <v>958</v>
+      </c>
+      <c r="J28">
+        <v>9</v>
+      </c>
+      <c r="K28">
+        <v>75</v>
+      </c>
+      <c r="L28">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>12</v>
+      </c>
+      <c r="C29">
+        <v>12</v>
+      </c>
+      <c r="D29">
+        <v>12</v>
+      </c>
+      <c r="E29">
+        <v>62</v>
+      </c>
+      <c r="G29">
+        <v>11</v>
+      </c>
+      <c r="H29">
+        <v>958</v>
+      </c>
+      <c r="J29">
+        <v>4</v>
+      </c>
+      <c r="K29">
+        <v>29</v>
+      </c>
+      <c r="L29">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <v>11</v>
+      </c>
+      <c r="C30">
+        <v>9</v>
+      </c>
+      <c r="D30">
+        <v>9</v>
+      </c>
+      <c r="E30">
+        <v>11</v>
+      </c>
+      <c r="G30">
+        <v>17</v>
+      </c>
+      <c r="H30">
+        <v>958</v>
+      </c>
+      <c r="J30">
+        <v>15</v>
+      </c>
+      <c r="K30">
+        <v>180</v>
+      </c>
+      <c r="L30">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>14</v>
+      </c>
+      <c r="G31">
+        <v>5</v>
+      </c>
+      <c r="H31">
+        <v>958</v>
+      </c>
+      <c r="J31">
+        <v>15</v>
+      </c>
+      <c r="K31">
+        <v>180</v>
+      </c>
+      <c r="L31">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>13</v>
+      </c>
+      <c r="C32">
+        <v>11</v>
+      </c>
+      <c r="D32">
+        <v>11</v>
+      </c>
+      <c r="E32">
+        <v>84</v>
+      </c>
+      <c r="G32">
+        <v>17</v>
+      </c>
+      <c r="H32">
+        <v>958</v>
+      </c>
+      <c r="J32">
+        <v>12</v>
+      </c>
+      <c r="K32">
+        <v>164</v>
+      </c>
+      <c r="L32">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>10</v>
+      </c>
+      <c r="C33">
+        <v>8</v>
+      </c>
+      <c r="D33">
+        <v>8</v>
+      </c>
+      <c r="E33">
+        <v>10</v>
+      </c>
+      <c r="G33">
+        <v>7</v>
+      </c>
+      <c r="H33">
+        <v>958</v>
+      </c>
+      <c r="J33">
+        <v>9</v>
+      </c>
+      <c r="K33">
+        <v>78</v>
+      </c>
+      <c r="L33">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>41</v>
+      </c>
+      <c r="C34">
+        <v>37</v>
+      </c>
+      <c r="D34">
+        <v>37</v>
+      </c>
+      <c r="E34">
+        <v>41</v>
+      </c>
+      <c r="G34">
+        <v>51</v>
+      </c>
+      <c r="H34">
+        <v>958</v>
+      </c>
+      <c r="J34">
+        <v>16</v>
+      </c>
+      <c r="K34">
+        <v>222</v>
+      </c>
+      <c r="L34">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>7</v>
+      </c>
+      <c r="C35">
+        <v>5</v>
+      </c>
+      <c r="D35">
+        <v>7</v>
+      </c>
+      <c r="E35">
+        <v>7</v>
+      </c>
+      <c r="G35">
+        <v>4</v>
+      </c>
+      <c r="H35">
+        <v>958</v>
+      </c>
+      <c r="J35">
+        <v>7</v>
+      </c>
+      <c r="K35">
+        <v>68</v>
+      </c>
+      <c r="L35">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>13</v>
+      </c>
+      <c r="C36">
+        <v>11</v>
+      </c>
+      <c r="D36">
+        <v>11</v>
+      </c>
+      <c r="E36">
+        <v>13</v>
+      </c>
+      <c r="G36">
+        <v>19</v>
+      </c>
+      <c r="H36">
+        <v>958</v>
+      </c>
+      <c r="J36">
+        <v>15</v>
+      </c>
+      <c r="K36">
+        <v>180</v>
+      </c>
+      <c r="L36">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>27</v>
+      </c>
+      <c r="C37">
+        <v>25</v>
+      </c>
+      <c r="D37">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>29</v>
+      </c>
+      <c r="G37">
+        <v>5</v>
+      </c>
+      <c r="H37">
+        <v>958</v>
+      </c>
+      <c r="J37">
+        <v>4</v>
+      </c>
+      <c r="K37">
+        <v>29</v>
+      </c>
+      <c r="L37">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>14</v>
+      </c>
+      <c r="C38">
+        <v>12</v>
+      </c>
+      <c r="D38">
+        <v>12</v>
+      </c>
+      <c r="E38">
+        <v>14</v>
+      </c>
+      <c r="G38">
+        <v>19</v>
+      </c>
+      <c r="H38">
+        <v>958</v>
+      </c>
+      <c r="J38">
+        <v>13</v>
+      </c>
+      <c r="K38">
+        <v>167</v>
+      </c>
+      <c r="L38">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
+        <v>14</v>
+      </c>
+      <c r="C39">
+        <v>10</v>
+      </c>
+      <c r="D39">
+        <v>10</v>
+      </c>
+      <c r="E39">
+        <v>109</v>
+      </c>
+      <c r="G39">
+        <v>15</v>
+      </c>
+      <c r="H39">
+        <v>958</v>
+      </c>
+      <c r="J39">
+        <v>8</v>
+      </c>
+      <c r="K39">
+        <v>131</v>
+      </c>
+      <c r="L39">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40">
+        <v>65</v>
+      </c>
+      <c r="C40">
+        <v>34</v>
+      </c>
+      <c r="D40">
+        <v>34</v>
+      </c>
+      <c r="E40">
+        <v>68</v>
+      </c>
+      <c r="G40">
+        <v>42</v>
+      </c>
+      <c r="H40">
+        <v>958</v>
+      </c>
+      <c r="J40">
+        <v>9</v>
+      </c>
+      <c r="K40">
+        <v>78</v>
+      </c>
+      <c r="L40">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41">
+        <v>7</v>
+      </c>
+      <c r="C41">
+        <v>7</v>
+      </c>
+      <c r="D41">
+        <v>7</v>
+      </c>
+      <c r="E41">
+        <v>11</v>
+      </c>
+      <c r="G41">
+        <v>4</v>
+      </c>
+      <c r="H41">
+        <v>958</v>
+      </c>
+      <c r="J41">
+        <v>4</v>
+      </c>
+      <c r="K41">
+        <v>29</v>
+      </c>
+      <c r="L41">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42">
+        <v>6</v>
+      </c>
+      <c r="C42">
+        <v>6</v>
+      </c>
+      <c r="D42">
+        <v>6</v>
+      </c>
+      <c r="E42">
+        <v>61</v>
+      </c>
+      <c r="G42">
+        <v>2</v>
+      </c>
+      <c r="H42">
+        <v>958</v>
+      </c>
+      <c r="J42">
+        <v>4</v>
+      </c>
+      <c r="K42">
+        <v>29</v>
+      </c>
+      <c r="L42">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43">
+        <v>11</v>
+      </c>
+      <c r="C43">
+        <v>9</v>
+      </c>
+      <c r="D43">
+        <v>9</v>
+      </c>
+      <c r="E43">
+        <v>11</v>
+      </c>
+      <c r="G43">
+        <v>17</v>
+      </c>
+      <c r="H43">
+        <v>958</v>
+      </c>
+      <c r="J43">
+        <v>15</v>
+      </c>
+      <c r="K43">
+        <v>180</v>
+      </c>
+      <c r="L43">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44">
+        <v>26</v>
+      </c>
+      <c r="C44">
+        <v>14</v>
+      </c>
+      <c r="D44">
+        <v>14</v>
+      </c>
+      <c r="E44">
+        <v>26</v>
+      </c>
+      <c r="G44">
+        <v>19</v>
+      </c>
+      <c r="H44">
+        <v>958</v>
+      </c>
+      <c r="J44">
+        <v>9</v>
+      </c>
+      <c r="K44">
+        <v>75</v>
+      </c>
+      <c r="L44">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45">
+        <v>-1</v>
+      </c>
+      <c r="C45">
+        <v>-1</v>
+      </c>
+      <c r="D45">
+        <v>-1</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>958</v>
+      </c>
+      <c r="H45">
+        <v>958</v>
+      </c>
+      <c r="J45">
+        <v>51</v>
+      </c>
+      <c r="K45">
+        <v>958</v>
+      </c>
+      <c r="L45">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46">
+        <v>39</v>
+      </c>
+      <c r="C46">
+        <v>35</v>
+      </c>
+      <c r="D46">
+        <v>35</v>
+      </c>
+      <c r="E46">
+        <v>39</v>
+      </c>
+      <c r="G46">
+        <v>53</v>
+      </c>
+      <c r="H46">
+        <v>958</v>
+      </c>
+      <c r="J46">
+        <v>13</v>
+      </c>
+      <c r="K46">
+        <v>249</v>
+      </c>
+      <c r="L46">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47">
+        <v>20</v>
+      </c>
+      <c r="C47">
+        <v>9</v>
+      </c>
+      <c r="D47">
+        <v>9</v>
+      </c>
+      <c r="E47">
+        <v>138</v>
+      </c>
+      <c r="G47">
+        <v>4</v>
+      </c>
+      <c r="H47">
+        <v>958</v>
+      </c>
+      <c r="J47">
+        <v>7</v>
+      </c>
+      <c r="K47">
+        <v>68</v>
+      </c>
+      <c r="L47">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48">
+        <v>11</v>
+      </c>
+      <c r="C48">
+        <v>9</v>
+      </c>
+      <c r="D48">
+        <v>9</v>
+      </c>
+      <c r="E48">
+        <v>23</v>
+      </c>
+      <c r="G48">
+        <v>16</v>
+      </c>
+      <c r="H48">
+        <v>958</v>
+      </c>
+      <c r="J48">
+        <v>15</v>
+      </c>
+      <c r="K48">
+        <v>180</v>
+      </c>
+      <c r="L48">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49">
+        <v>11</v>
+      </c>
+      <c r="C49">
+        <v>6</v>
+      </c>
+      <c r="D49">
+        <v>6</v>
+      </c>
+      <c r="E49">
+        <v>11</v>
+      </c>
+      <c r="G49">
+        <v>16</v>
+      </c>
+      <c r="H49">
+        <v>958</v>
+      </c>
+      <c r="J49">
+        <v>16</v>
+      </c>
+      <c r="K49">
+        <v>289</v>
+      </c>
+      <c r="L49">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50">
+        <v>13</v>
+      </c>
+      <c r="C50">
+        <v>11</v>
+      </c>
+      <c r="D50">
+        <v>11</v>
+      </c>
+      <c r="E50">
+        <v>13</v>
+      </c>
+      <c r="G50">
+        <v>17</v>
+      </c>
+      <c r="H50">
+        <v>958</v>
+      </c>
+      <c r="J50">
+        <v>16</v>
+      </c>
+      <c r="K50">
+        <v>222</v>
+      </c>
+      <c r="L50">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51">
+        <v>11</v>
+      </c>
+      <c r="C51">
+        <v>9</v>
+      </c>
+      <c r="D51">
+        <v>9</v>
+      </c>
+      <c r="E51">
+        <v>11</v>
+      </c>
+      <c r="G51">
+        <v>17</v>
+      </c>
+      <c r="H51">
+        <v>958</v>
+      </c>
+      <c r="J51">
+        <v>15</v>
+      </c>
+      <c r="K51">
+        <v>180</v>
+      </c>
+      <c r="L51">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52">
+        <v>9</v>
+      </c>
+      <c r="C52">
+        <v>7</v>
+      </c>
+      <c r="D52">
+        <v>7</v>
+      </c>
+      <c r="E52">
+        <v>9</v>
+      </c>
+      <c r="G52">
+        <v>14</v>
+      </c>
+      <c r="H52">
+        <v>958</v>
+      </c>
+      <c r="J52">
+        <v>15</v>
+      </c>
+      <c r="K52">
+        <v>180</v>
+      </c>
+      <c r="L52">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53">
+        <v>24</v>
+      </c>
+      <c r="C53">
+        <v>33</v>
+      </c>
+      <c r="D53">
+        <v>24</v>
+      </c>
+      <c r="E53">
+        <v>142</v>
+      </c>
+      <c r="G53">
+        <v>31</v>
+      </c>
+      <c r="H53">
+        <v>958</v>
+      </c>
+      <c r="J53">
+        <v>16</v>
+      </c>
+      <c r="K53">
+        <v>289</v>
+      </c>
+      <c r="L53">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" t="s">
+        <v>62</v>
+      </c>
+      <c r="B54">
+        <v>13</v>
+      </c>
+      <c r="C54">
+        <v>11</v>
+      </c>
+      <c r="D54">
+        <v>11</v>
+      </c>
+      <c r="E54">
+        <v>36</v>
+      </c>
+      <c r="G54">
+        <v>19</v>
+      </c>
+      <c r="H54">
+        <v>958</v>
+      </c>
+      <c r="J54">
+        <v>15</v>
+      </c>
+      <c r="K54">
+        <v>180</v>
+      </c>
+      <c r="L54">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55">
+        <v>19</v>
+      </c>
+      <c r="C55">
+        <v>17</v>
+      </c>
+      <c r="D55">
+        <v>17</v>
+      </c>
+      <c r="E55">
+        <v>19</v>
+      </c>
+      <c r="G55">
+        <v>27</v>
+      </c>
+      <c r="H55">
+        <v>958</v>
+      </c>
+      <c r="J55">
+        <v>13</v>
+      </c>
+      <c r="K55">
+        <v>167</v>
+      </c>
+      <c r="L55">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" t="s">
+        <v>64</v>
+      </c>
+      <c r="B56">
+        <v>18</v>
+      </c>
+      <c r="C56">
+        <v>10</v>
+      </c>
+      <c r="D56">
+        <v>10</v>
+      </c>
+      <c r="E56">
+        <v>18</v>
+      </c>
+      <c r="G56">
+        <v>25</v>
+      </c>
+      <c r="H56">
+        <v>958</v>
+      </c>
+      <c r="J56">
+        <v>16</v>
+      </c>
+      <c r="K56">
+        <v>222</v>
+      </c>
+      <c r="L56">
+        <v>958</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>18</v>
+      </c>
+      <c r="G2">
+        <v>112</v>
+      </c>
+      <c r="H2">
+        <v>958</v>
+      </c>
+      <c r="J2">
+        <v>9</v>
+      </c>
+      <c r="K2">
+        <v>154</v>
+      </c>
+      <c r="L2">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>68</v>
+      </c>
+      <c r="G3">
+        <v>171</v>
+      </c>
+      <c r="H3">
+        <v>958</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+      <c r="K3">
+        <v>17</v>
+      </c>
+      <c r="L3">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>-1</v>
+      </c>
+      <c r="C4">
+        <v>-1</v>
+      </c>
+      <c r="D4">
+        <v>-1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>348</v>
+      </c>
+      <c r="H4">
+        <v>958</v>
+      </c>
+      <c r="J4">
+        <v>31</v>
+      </c>
+      <c r="K4">
+        <v>712</v>
+      </c>
+      <c r="L4">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>122</v>
+      </c>
+      <c r="G5">
+        <v>20</v>
+      </c>
+      <c r="H5">
+        <v>958</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <v>119</v>
+      </c>
+      <c r="L5">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>95</v>
+      </c>
+      <c r="C6">
+        <v>64</v>
+      </c>
+      <c r="D6">
+        <v>86</v>
+      </c>
+      <c r="E6">
+        <v>162</v>
+      </c>
+      <c r="G6">
+        <v>390</v>
+      </c>
+      <c r="H6">
+        <v>958</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <v>119</v>
+      </c>
+      <c r="L6">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>-1</v>
+      </c>
+      <c r="C7">
+        <v>-1</v>
+      </c>
+      <c r="D7">
+        <v>-1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>499</v>
+      </c>
+      <c r="H7">
+        <v>958</v>
+      </c>
+      <c r="J7">
+        <v>31</v>
+      </c>
+      <c r="K7">
+        <v>712</v>
+      </c>
+      <c r="L7">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>34</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>57</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>958</v>
+      </c>
+      <c r="J8">
+        <v>12</v>
+      </c>
+      <c r="K8">
+        <v>307</v>
+      </c>
+      <c r="L8">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>21</v>
+      </c>
+      <c r="G9">
+        <v>171</v>
+      </c>
+      <c r="H9">
+        <v>958</v>
+      </c>
+      <c r="J9">
+        <v>5</v>
+      </c>
+      <c r="K9">
+        <v>119</v>
+      </c>
+      <c r="L9">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>21</v>
+      </c>
+      <c r="H10">
+        <v>958</v>
+      </c>
+      <c r="J10">
+        <v>4</v>
+      </c>
+      <c r="K10">
+        <v>92</v>
+      </c>
+      <c r="L10">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>-1</v>
+      </c>
+      <c r="C11">
+        <v>-1</v>
+      </c>
+      <c r="D11">
+        <v>-1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>110</v>
+      </c>
+      <c r="H11">
+        <v>958</v>
+      </c>
+      <c r="J11">
+        <v>31</v>
+      </c>
+      <c r="K11">
+        <v>712</v>
+      </c>
+      <c r="L11">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>14</v>
+      </c>
+      <c r="E12">
+        <v>90</v>
+      </c>
+      <c r="G12">
+        <v>129</v>
+      </c>
+      <c r="H12">
+        <v>958</v>
+      </c>
+      <c r="J12">
+        <v>4</v>
+      </c>
+      <c r="K12">
+        <v>102</v>
+      </c>
+      <c r="L12">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>14</v>
+      </c>
+      <c r="G13">
+        <v>17</v>
+      </c>
+      <c r="H13">
+        <v>958</v>
+      </c>
+      <c r="J13">
+        <v>9</v>
+      </c>
+      <c r="K13">
+        <v>154</v>
+      </c>
+      <c r="L13">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>18</v>
+      </c>
+      <c r="G14">
+        <v>171</v>
+      </c>
+      <c r="H14">
+        <v>958</v>
+      </c>
+      <c r="J14">
+        <v>9</v>
+      </c>
+      <c r="K14">
+        <v>154</v>
+      </c>
+      <c r="L14">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>8</v>
+      </c>
+      <c r="D15">
+        <v>8</v>
+      </c>
+      <c r="E15">
+        <v>68</v>
+      </c>
+      <c r="G15">
+        <v>179</v>
+      </c>
+      <c r="H15">
+        <v>958</v>
+      </c>
+      <c r="J15">
+        <v>5</v>
+      </c>
+      <c r="K15">
+        <v>119</v>
+      </c>
+      <c r="L15">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>8</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>131</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="H16">
+        <v>958</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+      <c r="K16">
+        <v>73</v>
+      </c>
+      <c r="L16">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>161</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <v>958</v>
+      </c>
+      <c r="J17">
+        <v>5</v>
+      </c>
+      <c r="K17">
+        <v>119</v>
+      </c>
+      <c r="L17">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>12</v>
+      </c>
+      <c r="G18">
+        <v>640</v>
+      </c>
+      <c r="H18">
+        <v>958</v>
+      </c>
+      <c r="J18">
+        <v>6</v>
+      </c>
+      <c r="K18">
+        <v>105</v>
+      </c>
+      <c r="L18">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>71</v>
+      </c>
+      <c r="G19">
+        <v>19</v>
+      </c>
+      <c r="H19">
+        <v>958</v>
+      </c>
+      <c r="J19">
+        <v>5</v>
+      </c>
+      <c r="K19">
+        <v>119</v>
+      </c>
+      <c r="L19">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>13</v>
+      </c>
+      <c r="G20">
+        <v>233</v>
+      </c>
+      <c r="H20">
+        <v>958</v>
+      </c>
+      <c r="J20">
+        <v>5</v>
+      </c>
+      <c r="K20">
+        <v>119</v>
+      </c>
+      <c r="L20">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>102</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="H21">
+        <v>958</v>
+      </c>
+      <c r="J21">
+        <v>3</v>
+      </c>
+      <c r="K21">
+        <v>45</v>
+      </c>
+      <c r="L21">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <v>6</v>
+      </c>
+      <c r="E22">
+        <v>11</v>
+      </c>
+      <c r="G22">
+        <v>689</v>
+      </c>
+      <c r="H22">
+        <v>958</v>
+      </c>
+      <c r="J22">
+        <v>5</v>
+      </c>
+      <c r="K22">
+        <v>119</v>
+      </c>
+      <c r="L22">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>67</v>
+      </c>
+      <c r="G23">
+        <v>20</v>
+      </c>
+      <c r="H23">
+        <v>958</v>
+      </c>
+      <c r="J23">
+        <v>5</v>
+      </c>
+      <c r="K23">
+        <v>119</v>
+      </c>
+      <c r="L23">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="G24">
+        <v>19</v>
+      </c>
+      <c r="H24">
+        <v>961</v>
+      </c>
+      <c r="J24">
+        <v>3</v>
+      </c>
+      <c r="K24">
+        <v>90</v>
+      </c>
+      <c r="L24">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="E25">
+        <v>18</v>
+      </c>
+      <c r="G25">
+        <v>352</v>
+      </c>
+      <c r="H25">
+        <v>958</v>
+      </c>
+      <c r="J25">
+        <v>9</v>
+      </c>
+      <c r="K25">
+        <v>154</v>
+      </c>
+      <c r="L25">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <v>38</v>
+      </c>
+      <c r="D26">
+        <v>5</v>
+      </c>
+      <c r="E26">
+        <v>82</v>
+      </c>
+      <c r="G26">
+        <v>249</v>
+      </c>
+      <c r="H26">
+        <v>958</v>
+      </c>
+      <c r="J26">
+        <v>3</v>
+      </c>
+      <c r="K26">
+        <v>45</v>
+      </c>
+      <c r="L26">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>21</v>
+      </c>
+      <c r="G27">
+        <v>111</v>
+      </c>
+      <c r="H27">
+        <v>958</v>
+      </c>
+      <c r="J27">
+        <v>5</v>
+      </c>
+      <c r="K27">
+        <v>119</v>
+      </c>
+      <c r="L27">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>32</v>
+      </c>
+      <c r="G28">
+        <v>168</v>
+      </c>
+      <c r="H28">
+        <v>958</v>
+      </c>
+      <c r="J28">
+        <v>3</v>
+      </c>
+      <c r="K28">
+        <v>14</v>
+      </c>
+      <c r="L28">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>62</v>
+      </c>
+      <c r="G29">
+        <v>3</v>
+      </c>
+      <c r="H29">
+        <v>958</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>13</v>
+      </c>
+      <c r="L29">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>11</v>
+      </c>
+      <c r="G30">
+        <v>351</v>
+      </c>
+      <c r="H30">
+        <v>958</v>
+      </c>
+      <c r="J30">
+        <v>6</v>
+      </c>
+      <c r="K30">
+        <v>105</v>
+      </c>
+      <c r="L30">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31">
+        <v>6</v>
+      </c>
+      <c r="C31">
+        <v>6</v>
+      </c>
+      <c r="D31">
+        <v>6</v>
+      </c>
+      <c r="E31">
+        <v>14</v>
+      </c>
+      <c r="G31">
+        <v>503</v>
+      </c>
+      <c r="H31">
+        <v>958</v>
+      </c>
+      <c r="J31">
+        <v>6</v>
+      </c>
+      <c r="K31">
+        <v>105</v>
+      </c>
+      <c r="L31">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>5</v>
+      </c>
+      <c r="C32">
+        <v>5</v>
+      </c>
+      <c r="D32">
+        <v>5</v>
+      </c>
+      <c r="E32">
+        <v>84</v>
+      </c>
+      <c r="G32">
+        <v>6</v>
+      </c>
+      <c r="H32">
+        <v>958</v>
+      </c>
+      <c r="J32">
+        <v>4</v>
+      </c>
+      <c r="K32">
+        <v>92</v>
+      </c>
+      <c r="L32">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>10</v>
+      </c>
+      <c r="G33">
+        <v>501</v>
+      </c>
+      <c r="H33">
+        <v>958</v>
+      </c>
+      <c r="J33">
+        <v>3</v>
+      </c>
+      <c r="K33">
+        <v>17</v>
+      </c>
+      <c r="L33">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>14</v>
+      </c>
+      <c r="C34">
+        <v>12</v>
+      </c>
+      <c r="D34">
+        <v>12</v>
+      </c>
+      <c r="E34">
+        <v>41</v>
+      </c>
+      <c r="G34">
+        <v>241</v>
+      </c>
+      <c r="H34">
+        <v>958</v>
+      </c>
+      <c r="J34">
+        <v>9</v>
+      </c>
+      <c r="K34">
+        <v>154</v>
+      </c>
+      <c r="L34">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>4</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>7</v>
+      </c>
+      <c r="G35">
+        <v>500</v>
+      </c>
+      <c r="H35">
+        <v>958</v>
+      </c>
+      <c r="J35">
+        <v>18</v>
+      </c>
+      <c r="K35">
+        <v>325</v>
+      </c>
+      <c r="L35">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+      <c r="E36">
+        <v>13</v>
+      </c>
+      <c r="G36">
+        <v>18</v>
+      </c>
+      <c r="H36">
+        <v>958</v>
+      </c>
+      <c r="J36">
+        <v>6</v>
+      </c>
+      <c r="K36">
+        <v>105</v>
+      </c>
+      <c r="L36">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37">
+        <v>29</v>
+      </c>
+      <c r="G37">
+        <v>564</v>
+      </c>
+      <c r="H37">
+        <v>958</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>13</v>
+      </c>
+      <c r="L37">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>14</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>958</v>
+      </c>
+      <c r="J38">
+        <v>4</v>
+      </c>
+      <c r="K38">
+        <v>92</v>
+      </c>
+      <c r="L38">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
+        <v>18</v>
+      </c>
+      <c r="C39">
+        <v>18</v>
+      </c>
+      <c r="D39">
+        <v>18</v>
+      </c>
+      <c r="E39">
+        <v>109</v>
+      </c>
+      <c r="G39">
+        <v>43</v>
+      </c>
+      <c r="H39">
+        <v>958</v>
+      </c>
+      <c r="J39">
+        <v>4</v>
+      </c>
+      <c r="K39">
+        <v>102</v>
+      </c>
+      <c r="L39">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40">
+        <v>9</v>
+      </c>
+      <c r="C40">
+        <v>6</v>
+      </c>
+      <c r="D40">
+        <v>9</v>
+      </c>
+      <c r="E40">
+        <v>68</v>
+      </c>
+      <c r="G40">
+        <v>352</v>
+      </c>
+      <c r="H40">
+        <v>958</v>
+      </c>
+      <c r="J40">
+        <v>3</v>
+      </c>
+      <c r="K40">
+        <v>17</v>
+      </c>
+      <c r="L40">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>11</v>
+      </c>
+      <c r="G41">
+        <v>2</v>
+      </c>
+      <c r="H41">
+        <v>958</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>13</v>
+      </c>
+      <c r="L41">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42">
+        <v>10</v>
+      </c>
+      <c r="C42">
+        <v>8</v>
+      </c>
+      <c r="D42">
+        <v>10</v>
+      </c>
+      <c r="E42">
+        <v>61</v>
+      </c>
+      <c r="G42">
+        <v>730</v>
+      </c>
+      <c r="H42">
+        <v>958</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>13</v>
+      </c>
+      <c r="L42">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="E43">
+        <v>11</v>
+      </c>
+      <c r="G43">
+        <v>23</v>
+      </c>
+      <c r="H43">
+        <v>958</v>
+      </c>
+      <c r="J43">
+        <v>6</v>
+      </c>
+      <c r="K43">
+        <v>105</v>
+      </c>
+      <c r="L43">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44">
+        <v>6</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44">
+        <v>26</v>
+      </c>
+      <c r="G44">
+        <v>702</v>
+      </c>
+      <c r="H44">
+        <v>958</v>
+      </c>
+      <c r="J44">
+        <v>11</v>
+      </c>
+      <c r="K44">
+        <v>201</v>
+      </c>
+      <c r="L44">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45">
+        <v>-1</v>
+      </c>
+      <c r="C45">
+        <v>-1</v>
+      </c>
+      <c r="D45">
+        <v>-1</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>498</v>
+      </c>
+      <c r="H45">
+        <v>958</v>
+      </c>
+      <c r="J45">
+        <v>31</v>
+      </c>
+      <c r="K45">
+        <v>712</v>
+      </c>
+      <c r="L45">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46">
+        <v>8</v>
+      </c>
+      <c r="C46">
+        <v>6</v>
+      </c>
+      <c r="D46">
+        <v>6</v>
+      </c>
+      <c r="E46">
+        <v>39</v>
+      </c>
+      <c r="G46">
+        <v>504</v>
+      </c>
+      <c r="H46">
+        <v>958</v>
+      </c>
+      <c r="J46">
+        <v>6</v>
+      </c>
+      <c r="K46">
+        <v>175</v>
+      </c>
+      <c r="L46">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47">
+        <v>39</v>
+      </c>
+      <c r="C47">
+        <v>31</v>
+      </c>
+      <c r="D47">
+        <v>39</v>
+      </c>
+      <c r="E47">
+        <v>138</v>
+      </c>
+      <c r="G47">
+        <v>526</v>
+      </c>
+      <c r="H47">
+        <v>958</v>
+      </c>
+      <c r="J47">
+        <v>3</v>
+      </c>
+      <c r="K47">
+        <v>39</v>
+      </c>
+      <c r="L47">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>23</v>
+      </c>
+      <c r="G48">
+        <v>2</v>
+      </c>
+      <c r="H48">
+        <v>958</v>
+      </c>
+      <c r="J48">
+        <v>6</v>
+      </c>
+      <c r="K48">
+        <v>105</v>
+      </c>
+      <c r="L48">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <v>11</v>
+      </c>
+      <c r="G49">
+        <v>112</v>
+      </c>
+      <c r="H49">
+        <v>958</v>
+      </c>
+      <c r="J49">
+        <v>5</v>
+      </c>
+      <c r="K49">
+        <v>119</v>
+      </c>
+      <c r="L49">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <v>13</v>
+      </c>
+      <c r="G50">
+        <v>115</v>
+      </c>
+      <c r="H50">
+        <v>958</v>
+      </c>
+      <c r="J50">
+        <v>9</v>
+      </c>
+      <c r="K50">
+        <v>154</v>
+      </c>
+      <c r="L50">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51">
+        <v>3</v>
+      </c>
+      <c r="C51">
+        <v>3</v>
+      </c>
+      <c r="D51">
+        <v>3</v>
+      </c>
+      <c r="E51">
+        <v>11</v>
+      </c>
+      <c r="G51">
+        <v>20</v>
+      </c>
+      <c r="H51">
+        <v>958</v>
+      </c>
+      <c r="J51">
+        <v>6</v>
+      </c>
+      <c r="K51">
+        <v>105</v>
+      </c>
+      <c r="L51">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>9</v>
+      </c>
+      <c r="G52">
+        <v>2</v>
+      </c>
+      <c r="H52">
+        <v>958</v>
+      </c>
+      <c r="J52">
+        <v>6</v>
+      </c>
+      <c r="K52">
+        <v>105</v>
+      </c>
+      <c r="L52">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53">
+        <v>3</v>
+      </c>
+      <c r="C53">
+        <v>75</v>
+      </c>
+      <c r="D53">
+        <v>3</v>
+      </c>
+      <c r="E53">
+        <v>142</v>
+      </c>
+      <c r="G53">
+        <v>287</v>
+      </c>
+      <c r="H53">
+        <v>958</v>
+      </c>
+      <c r="J53">
+        <v>12</v>
+      </c>
+      <c r="K53">
+        <v>260</v>
+      </c>
+      <c r="L53">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" t="s">
+        <v>62</v>
+      </c>
+      <c r="B54">
+        <v>16</v>
+      </c>
+      <c r="C54">
+        <v>7</v>
+      </c>
+      <c r="D54">
+        <v>16</v>
+      </c>
+      <c r="E54">
+        <v>36</v>
+      </c>
+      <c r="G54">
+        <v>239</v>
+      </c>
+      <c r="H54">
+        <v>958</v>
+      </c>
+      <c r="J54">
+        <v>6</v>
+      </c>
+      <c r="K54">
+        <v>105</v>
+      </c>
+      <c r="L54">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55">
+        <v>4</v>
+      </c>
+      <c r="C55">
+        <v>4</v>
+      </c>
+      <c r="D55">
+        <v>4</v>
+      </c>
+      <c r="E55">
+        <v>19</v>
+      </c>
+      <c r="G55">
+        <v>173</v>
+      </c>
+      <c r="H55">
+        <v>958</v>
+      </c>
+      <c r="J55">
+        <v>4</v>
+      </c>
+      <c r="K55">
+        <v>92</v>
+      </c>
+      <c r="L55">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" t="s">
+        <v>64</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>18</v>
+      </c>
+      <c r="G56">
+        <v>231</v>
+      </c>
+      <c r="H56">
+        <v>958</v>
+      </c>
+      <c r="J56">
+        <v>9</v>
+      </c>
+      <c r="K56">
+        <v>154</v>
+      </c>
+      <c r="L56">
+        <v>958</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L56"/>
@@ -18647,13 +22259,13 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>18</v>
@@ -18679,13 +22291,13 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>68</v>
@@ -18743,13 +22355,13 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>122</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>63</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>63</v>
+        <v>4</v>
       </c>
       <c r="E5">
         <v>122</v>
@@ -18775,13 +22387,13 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>162</v>
+        <v>95</v>
       </c>
       <c r="C6">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="D6">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E6">
         <v>162</v>
@@ -18839,13 +22451,13 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E8">
         <v>57</v>
@@ -18871,13 +22483,13 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E9">
         <v>21</v>
@@ -18903,13 +22515,13 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <v>10</v>
@@ -18967,13 +22579,13 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E12">
         <v>90</v>
@@ -18999,13 +22611,13 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E13">
         <v>14</v>
@@ -19031,13 +22643,13 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>18</v>
@@ -19063,13 +22675,13 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E15">
         <v>68</v>
@@ -19095,7 +22707,7 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -19127,13 +22739,13 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E17">
         <v>161</v>
@@ -19159,13 +22771,13 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C18">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D18">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E18">
         <v>12</v>
@@ -19191,13 +22803,13 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C19">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D19">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E19">
         <v>71</v>
@@ -19223,13 +22835,13 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C20">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D20">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E20">
         <v>13</v>
@@ -19255,13 +22867,13 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="C21">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D21">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="E21">
         <v>102</v>
@@ -19287,7 +22899,7 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -19319,13 +22931,13 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C23">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D23">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E23">
         <v>67</v>
@@ -19351,13 +22963,13 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E24">
         <v>2</v>
@@ -19383,13 +22995,13 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C25">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D25">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E25">
         <v>18</v>
@@ -19415,13 +23027,13 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="C26">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="D26">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="E26">
         <v>82</v>
@@ -19447,13 +23059,13 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D27">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E27">
         <v>21</v>
@@ -19479,13 +23091,13 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C28">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D28">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E28">
         <v>32</v>
@@ -19511,13 +23123,13 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C29">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D29">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E29">
         <v>62</v>
@@ -19543,13 +23155,13 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C30">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D30">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E30">
         <v>11</v>
@@ -19575,13 +23187,13 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E31">
         <v>14</v>
@@ -19607,13 +23219,13 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C32">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D32">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E32">
         <v>84</v>
@@ -19639,13 +23251,13 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C33">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D33">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E33">
         <v>10</v>
@@ -19671,13 +23283,13 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="C34">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D34">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="E34">
         <v>41</v>
@@ -19703,13 +23315,13 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C35">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D35">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E35">
         <v>7</v>
@@ -19735,13 +23347,13 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C36">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D36">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E36">
         <v>13</v>
@@ -19767,13 +23379,13 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="C37">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D37">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E37">
         <v>29</v>
@@ -19799,13 +23411,13 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C38">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D38">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E38">
         <v>14</v>
@@ -19831,13 +23443,13 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C39">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D39">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="E39">
         <v>109</v>
@@ -19863,13 +23475,13 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="C40">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="D40">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="E40">
         <v>68</v>
@@ -19895,13 +23507,13 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C41">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D41">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E41">
         <v>11</v>
@@ -19927,13 +23539,13 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C42">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D42">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E42">
         <v>61</v>
@@ -19959,13 +23571,13 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C43">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D43">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E43">
         <v>11</v>
@@ -19991,13 +23603,13 @@
         <v>52</v>
       </c>
       <c r="B44">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="C44">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D44">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E44">
         <v>26</v>
@@ -20055,13 +23667,13 @@
         <v>54</v>
       </c>
       <c r="B46">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="C46">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="D46">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="E46">
         <v>39</v>
@@ -20087,13 +23699,13 @@
         <v>55</v>
       </c>
       <c r="B47">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C47">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D47">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E47">
         <v>138</v>
@@ -20119,13 +23731,13 @@
         <v>56</v>
       </c>
       <c r="B48">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C48">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D48">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E48">
         <v>23</v>
@@ -20151,13 +23763,13 @@
         <v>57</v>
       </c>
       <c r="B49">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C49">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D49">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E49">
         <v>11</v>
@@ -20183,13 +23795,13 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C50">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D50">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E50">
         <v>13</v>
@@ -20215,13 +23827,13 @@
         <v>59</v>
       </c>
       <c r="B51">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C51">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D51">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E51">
         <v>11</v>
@@ -20247,13 +23859,13 @@
         <v>60</v>
       </c>
       <c r="B52">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C52">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D52">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E52">
         <v>9</v>
@@ -20279,13 +23891,13 @@
         <v>61</v>
       </c>
       <c r="B53">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C53">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="D53">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="E53">
         <v>142</v>
@@ -20311,13 +23923,13 @@
         <v>62</v>
       </c>
       <c r="B54">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C54">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D54">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E54">
         <v>36</v>
@@ -20343,13 +23955,13 @@
         <v>63</v>
       </c>
       <c r="B55">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C55">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D55">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E55">
         <v>19</v>
@@ -20375,13 +23987,13 @@
         <v>64</v>
       </c>
       <c r="B56">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C56">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D56">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E56">
         <v>18</v>
